--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE255F9-DB66-4103-99A5-4DD7EF1B265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE339F07-F8A6-D340-808C-DFC319193682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
   </bookViews>
   <sheets>
     <sheet name="Coren" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="313">
   <si>
     <t>Relação de Conselhos Profissionais Regionais</t>
   </si>
@@ -706,90 +717,6 @@
     <t>CRF-TO</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Nome Conselho</t>
-  </si>
-  <si>
     <t>CONSELHO REGIONAL DE FARMÁCIA</t>
   </si>
   <si>
@@ -805,21 +732,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CRF</t>
-  </si>
-  <si>
-    <t>CRO</t>
-  </si>
-  <si>
-    <t>COREN</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>UF/Conselho</t>
-  </si>
-  <si>
     <t>CRO-AC</t>
   </si>
   <si>
@@ -1063,7 +975,10 @@
     <t>CRM-TO</t>
   </si>
   <si>
-    <t>NamingSystem</t>
+    <t>attr:URL</t>
+  </si>
+  <si>
+    <t>attr:NamingSystem</t>
   </si>
 </sst>
 </file>
@@ -1492,19 +1407,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1453,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ac</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1465,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-al</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1477,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ap</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1489,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-am</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1501,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ba</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1513,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ce</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1525,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-df</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1537,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-es</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1634,7 +1549,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-go</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1646,7 +1561,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ma</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1573,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-mt</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1670,7 +1585,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ms</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1597,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-mg</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1609,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pr</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1621,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pb</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1633,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pa</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1730,7 +1645,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pe</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1742,7 +1657,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pi</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +1669,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rn</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1766,7 +1681,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rs</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1778,7 +1693,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rj</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1790,7 +1705,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ro</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1802,7 +1717,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rr</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1814,7 +1729,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-sc</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1826,7 +1741,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-se</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1838,7 +1753,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-sp</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1867,15 +1782,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1889,10 +1804,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
@@ -1907,7 +1822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1922,7 +1837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1937,7 +1852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1952,7 +1867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1967,7 +1882,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1982,7 +1897,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -2019,15 +1934,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -2041,7 +1956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2056,7 +1971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2071,7 +1986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2086,7 +2001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2101,7 +2016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2116,7 +2031,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +2046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -2146,7 +2061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2161,7 +2076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2176,7 +2091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2188,7 +2103,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ma</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2200,7 +2115,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-mt</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2212,7 +2127,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ms</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2224,7 +2139,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-mg</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2236,7 +2151,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pa</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2248,7 +2163,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pb</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -2260,7 +2175,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pr</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -2272,7 +2187,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pe</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2284,7 +2199,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pi</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -2296,7 +2211,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rn</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2308,7 +2223,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rs</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -2320,7 +2235,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rj</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -2332,7 +2247,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ro</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -2344,7 +2259,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rr</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -2356,7 +2271,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-sc</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2368,7 +2283,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-sp</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2380,7 +2295,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-se</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -2408,14 +2323,14 @@
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>196</v>
       </c>
@@ -2429,7 +2344,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2445,7 +2360,7 @@
         <v>CRF-AC</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2461,7 +2376,7 @@
         <v>CRF-AL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2477,7 +2392,7 @@
         <v>CRF-AM</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2493,7 +2408,7 @@
         <v>CRF-AP</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2509,7 +2424,7 @@
         <v>CRF-BA</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -2525,7 +2440,7 @@
         <v>CRF-CE</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2541,7 +2456,7 @@
         <v>CRF-DF</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2557,7 +2472,7 @@
         <v>CRF-ES</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -2573,7 +2488,7 @@
         <v>CRF-GO</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2589,7 +2504,7 @@
         <v>CRF-MA</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -2605,7 +2520,7 @@
         <v>CRF-MG</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -2621,7 +2536,7 @@
         <v>CRF-MS</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -2637,7 +2552,7 @@
         <v>CRF-MT</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2653,7 +2568,7 @@
         <v>CRF-PA</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -2669,7 +2584,7 @@
         <v>CRF-PB</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -2685,7 +2600,7 @@
         <v>CRF-PE</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -2701,7 +2616,7 @@
         <v>CRF-PI</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2717,7 +2632,7 @@
         <v>CRF-PR</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -2733,7 +2648,7 @@
         <v>CRF-RJ</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -2749,7 +2664,7 @@
         <v>CRF-RN</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -2765,7 +2680,7 @@
         <v>CRF-RO</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2781,7 +2696,7 @@
         <v>CRF-RR</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -2797,7 +2712,7 @@
         <v>CRF-RS</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -2813,7 +2728,7 @@
         <v>CRF-SC</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -2829,7 +2744,7 @@
         <v>CRF-SE</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -2845,7 +2760,7 @@
         <v>CRF-SP</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -2861,7 +2776,7 @@
         <v>CRF-TO</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
@@ -2877,7 +2792,7 @@
         <v>CRO-AC</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>89</v>
       </c>
@@ -2893,7 +2808,7 @@
         <v>CRO-AL</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -2909,7 +2824,7 @@
         <v>CRO-AP</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
@@ -2925,7 +2840,7 @@
         <v>CRO-AM</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
@@ -2941,7 +2856,7 @@
         <v>CRO-BA</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -2957,7 +2872,7 @@
         <v>CRO-CE</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -2973,7 +2888,7 @@
         <v>CRO-DF</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>101</v>
       </c>
@@ -2989,7 +2904,7 @@
         <v>CRO-ES</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>103</v>
       </c>
@@ -3005,7 +2920,7 @@
         <v>CRO-GO</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>105</v>
       </c>
@@ -3021,7 +2936,7 @@
         <v>CRO-MA</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +2952,7 @@
         <v>CRO-MT</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
@@ -3053,7 +2968,7 @@
         <v>CRO-MS</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -3069,7 +2984,7 @@
         <v>CRO-MG</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -3085,7 +3000,7 @@
         <v>CRO-PA</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
@@ -3101,7 +3016,7 @@
         <v>CRO-PB</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>117</v>
       </c>
@@ -3117,7 +3032,7 @@
         <v>CRO-PR</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -3133,7 +3048,7 @@
         <v>CRO-PE</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>121</v>
       </c>
@@ -3149,7 +3064,7 @@
         <v>CRO-PI</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>123</v>
       </c>
@@ -3165,7 +3080,7 @@
         <v>CRO-RN</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>125</v>
       </c>
@@ -3181,7 +3096,7 @@
         <v>CRO-RS</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>127</v>
       </c>
@@ -3197,7 +3112,7 @@
         <v>CRO-RJ</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>129</v>
       </c>
@@ -3213,7 +3128,7 @@
         <v>CRO-RO</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>131</v>
       </c>
@@ -3229,7 +3144,7 @@
         <v>CRO-RR</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>133</v>
       </c>
@@ -3245,7 +3160,7 @@
         <v>CRO-SC</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>135</v>
       </c>
@@ -3261,7 +3176,7 @@
         <v>CRO-SP</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>137</v>
       </c>
@@ -3277,7 +3192,7 @@
         <v>CRO-SE</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>139</v>
       </c>
@@ -3293,7 +3208,7 @@
         <v>CRO-TO</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
@@ -3309,7 +3224,7 @@
         <v>COREN-AC</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3240,7 @@
         <v>COREN-AL</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3256,7 @@
         <v>COREN-AP</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>13</v>
       </c>
@@ -3357,7 +3272,7 @@
         <v>COREN-AM</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3288,7 @@
         <v>COREN-BA</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>17</v>
       </c>
@@ -3389,7 +3304,7 @@
         <v>COREN-CE</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
@@ -3405,7 +3320,7 @@
         <v>COREN-DF</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3336,7 @@
         <v>COREN-ES</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>23</v>
       </c>
@@ -3437,7 +3352,7 @@
         <v>COREN-GO</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3368,7 @@
         <v>COREN-MA</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>27</v>
       </c>
@@ -3469,7 +3384,7 @@
         <v>COREN-MT</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>29</v>
       </c>
@@ -3485,7 +3400,7 @@
         <v>COREN-MS</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>31</v>
       </c>
@@ -3501,7 +3416,7 @@
         <v>COREN-MG</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>33</v>
       </c>
@@ -3517,7 +3432,7 @@
         <v>COREN-PR</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>35</v>
       </c>
@@ -3533,7 +3448,7 @@
         <v>COREN-PB</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>37</v>
       </c>
@@ -3549,7 +3464,7 @@
         <v>COREN-PA</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>39</v>
       </c>
@@ -3565,7 +3480,7 @@
         <v>COREN-PE</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>41</v>
       </c>
@@ -3581,7 +3496,7 @@
         <v>COREN-PI</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>43</v>
       </c>
@@ -3597,7 +3512,7 @@
         <v>COREN-RN</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>45</v>
       </c>
@@ -3613,7 +3528,7 @@
         <v>COREN-RS</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +3544,7 @@
         <v>COREN-RJ</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>49</v>
       </c>
@@ -3645,7 +3560,7 @@
         <v>COREN-RO</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>51</v>
       </c>
@@ -3661,7 +3576,7 @@
         <v>COREN-RR</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -3677,7 +3592,7 @@
         <v>COREN-SC</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>55</v>
       </c>
@@ -3693,7 +3608,7 @@
         <v>COREN-SE</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>57</v>
       </c>
@@ -3709,7 +3624,7 @@
         <v>COREN-SP</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>59</v>
       </c>
@@ -3725,7 +3640,7 @@
         <v>COREN-TO</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>64</v>
       </c>
@@ -3741,7 +3656,7 @@
         <v>CRM-AC</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>67</v>
       </c>
@@ -3757,7 +3672,7 @@
         <v>CREMAP</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>70</v>
       </c>
@@ -3773,7 +3688,7 @@
         <v>CREMAM</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>73</v>
       </c>
@@ -3789,7 +3704,7 @@
         <v>CREMEPA</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>76</v>
       </c>
@@ -3805,7 +3720,7 @@
         <v>CREMERO</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>79</v>
       </c>
@@ -3821,7 +3736,7 @@
         <v>CRM-RR</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>82</v>
       </c>
@@ -3845,2290 +3760,1759 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AF1733-39D4-42CC-8F74-2DC28C8FC5BF}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A2))</f>
+        <v>https://ips.saude.gov.br/sid/crf-ac</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A2))</f>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ac</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A3))</f>
+        <v>https://ips.saude.gov.br/sid/crf-al</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A3))</f>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-al</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-am</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-am</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ap</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ap</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ba</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ba</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ce</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ce</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-df</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-df</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-es</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-es</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-go</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-go</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ma</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-mg</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-mg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ms</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ms</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-mt</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-mt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pa</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-pa</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pb</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-pb</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pe</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-pe</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pi</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-pi</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pr</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-pr</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rj</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-rj</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rn</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-rn</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ro</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-ro</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rr</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-rr</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rs</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-rs</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-sc</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-sc</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-se</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-se</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-sp</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-sp</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-to</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crf-to</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ac</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ac</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-al</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-al</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-am</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-am</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ap</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ap</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ba</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ba</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ce</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ce</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-df</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-df</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-es</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-es</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-go</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-go</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ma</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-mg</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-mg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ms</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ms</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-mt</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-mt</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-pa</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-pa</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-pb</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-pb</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-pe</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-pe</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-pi</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-pi</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-pr</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-pr</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-rj</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-rj</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-rn</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-rn</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-ro</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-ro</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-rr</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-rr</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-rs</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-rs</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-sc</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-sc</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-se</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-se</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-sp</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-sp</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/cro-to</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/cro-to</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-ac</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ac</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-al</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-al</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-am</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-am</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-ap</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ap</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-ba</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ba</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE(B$1,"-",$A2)</f>
-        <v>CRF-AC</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE(C$1,"-",$A2)</f>
-        <v>CRO-AC</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:E28" si="0">CONCATENATE(D$1,"-",$A2)</f>
-        <v>COREN-AC</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-AC</v>
-      </c>
-      <c r="F2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(F2))</f>
-        <v>https://ips.saude.gov.br/sid/crf-ac</v>
-      </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(F2))</f>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ac</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B28" si="1">CONCATENATE(B$1,"-",A3)</f>
-        <v>CRF-AL</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C28" si="2">CONCATENATE(C$1,"-",$A3)</f>
-        <v>CRO-AL</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-AL</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-AL</v>
-      </c>
-      <c r="F3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="3">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(F3))</f>
-        <v>https://ips.saude.gov.br/sid/crf-al</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="4">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(F3))</f>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-al</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B61" t="s">
         <v>227</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-AM</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-AM</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-AM</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-AM</v>
-      </c>
-      <c r="F4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-am</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-am</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-ce</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ce</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-df</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-df</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-es</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-es</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-go</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-go</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-ma</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ma</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/coren-mg</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-mg</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C109" si="2">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A67))</f>
+        <v>https://ips.saude.gov.br/sid/coren-ms</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D109" si="3">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A67))</f>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ms</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-mt</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-mt</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-pa</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-pa</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-pb</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-pb</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-pe</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-pe</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-pi</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-pi</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-pr</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-pr</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-rj</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-rj</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-rn</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-rn</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-ro</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-ro</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-rr</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-rr</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-rs</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-rs</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-sc</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-sc</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-se</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-se</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-sp</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-sp</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/coren-to</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/coren-to</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" t="s">
         <v>228</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-AP</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-AP</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-AP</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-AP</v>
-      </c>
-      <c r="F5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ap</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ap</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-BA</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-BA</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-BA</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-BA</v>
-      </c>
-      <c r="F6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ba</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ba</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-CE</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-CE</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-CE</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-CE</v>
-      </c>
-      <c r="F7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ce</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ce</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-DF</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-DF</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-DF</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-DF</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-df</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-df</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-ES</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-ES</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-ES</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-ES</v>
-      </c>
-      <c r="F9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-es</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-es</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-GO</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-GO</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-GO</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-GO</v>
-      </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-go</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-go</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-MA</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-MA</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-MA</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-MA</v>
-      </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ma</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ma</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-MG</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-MG</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-MG</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-MG</v>
-      </c>
-      <c r="F12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-mg</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-mg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-MS</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-MS</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-MS</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-MS</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ms</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ms</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-MT</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-MT</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-MT</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-MT</v>
-      </c>
-      <c r="F14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-mt</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-mt</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-PA</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-PA</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-PA</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-PA</v>
-      </c>
-      <c r="F15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G15" t="s">
-        <v>253</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-pa</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-pa</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-PB</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-PB</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-PB</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-PB</v>
-      </c>
-      <c r="F16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-pb</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-pb</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-PE</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-PE</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-PE</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-PE</v>
-      </c>
-      <c r="F17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-pe</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-pe</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-PI</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-PI</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-PI</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-PI</v>
-      </c>
-      <c r="F18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-pi</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-pi</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-PR</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-PR</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-PR</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-PR</v>
-      </c>
-      <c r="F19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-pr</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-pr</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-RJ</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-RJ</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-RJ</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-RJ</v>
-      </c>
-      <c r="F20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-rj</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-rj</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-RN</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-RN</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-RN</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-RN</v>
-      </c>
-      <c r="F21" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-rn</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-rn</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-RO</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-RO</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-RO</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-RO</v>
-      </c>
-      <c r="F22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-ro</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-ro</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-RR</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-RR</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-RR</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-RR</v>
-      </c>
-      <c r="F23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-rr</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-rr</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-RS</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-RS</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-RS</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-RS</v>
-      </c>
-      <c r="F24" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-rs</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-rs</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-SC</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-SC</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-SC</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-SC</v>
-      </c>
-      <c r="F25" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" t="s">
-        <v>253</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-sc</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-sc</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-SE</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-SE</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-SE</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-SE</v>
-      </c>
-      <c r="F26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" t="s">
-        <v>253</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-se</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-se</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-SP</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-SP</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-SP</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-SP</v>
-      </c>
-      <c r="F27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" t="s">
-        <v>253</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-sp</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-sp</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>CRF-TO</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="2"/>
-        <v>CRO-TO</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>COREN-TO</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>CRM-TO</v>
-      </c>
-      <c r="F28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/crf-to</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crf-to</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" t="s">
-        <v>254</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ac</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ac</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-al</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-al</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-am</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-am</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ap</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ap</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>267</v>
-      </c>
-      <c r="G33" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ba</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ba</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>268</v>
-      </c>
-      <c r="G34" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ce</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ce</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-df</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-df</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-es</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-es</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>271</v>
-      </c>
-      <c r="G37" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-go</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-go</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ma</v>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ma</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" t="s">
-        <v>254</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-mg</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-mg</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>274</v>
-      </c>
-      <c r="G40" t="s">
-        <v>254</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ms</v>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ms</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G41" t="s">
-        <v>254</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-mt</v>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-mt</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" t="s">
-        <v>254</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-pa</v>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-pa</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-pb</v>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-pb</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-pe</v>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-pe</v>
-      </c>
-    </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" t="s">
-        <v>254</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-pi</v>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-pi</v>
-      </c>
-    </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-pr</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-pr</v>
-      </c>
-    </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-rj</v>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-rj</v>
-      </c>
-    </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>282</v>
-      </c>
-      <c r="G48" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-rn</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-rn</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>283</v>
-      </c>
-      <c r="G49" t="s">
-        <v>254</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-ro</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-ro</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-rr</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-rr</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ac</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ac</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>285</v>
       </c>
-      <c r="G51" t="s">
-        <v>254</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-rs</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-rs</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-al</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-al</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>286</v>
       </c>
-      <c r="G52" t="s">
-        <v>254</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-sc</v>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-sc</v>
-      </c>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
+      <c r="B85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-am</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-am</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>287</v>
       </c>
-      <c r="G53" t="s">
-        <v>254</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-se</v>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-se</v>
-      </c>
-    </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ap</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ap</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>288</v>
       </c>
-      <c r="G54" t="s">
-        <v>254</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-sp</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-sp</v>
-      </c>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
+      <c r="B87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ba</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ba</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>289</v>
       </c>
-      <c r="G55" t="s">
-        <v>254</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/cro-to</v>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/cro-to</v>
-      </c>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
+      <c r="B88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ce</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ce</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>290</v>
       </c>
-      <c r="G56" t="s">
-        <v>255</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-ac</v>
-      </c>
-      <c r="I56" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ac</v>
-      </c>
-    </row>
-    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57" t="s">
+      <c r="B89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-df</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-df</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>291</v>
       </c>
-      <c r="G57" t="s">
-        <v>255</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-al</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-al</v>
-      </c>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58" t="s">
+      <c r="B90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-es</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-es</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>292</v>
       </c>
-      <c r="G58" t="s">
-        <v>255</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-am</v>
-      </c>
-      <c r="I58" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-am</v>
-      </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-go</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-go</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>293</v>
       </c>
-      <c r="G59" t="s">
-        <v>255</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-ap</v>
-      </c>
-      <c r="I59" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ap</v>
-      </c>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
+      <c r="B92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ma</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ma</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>294</v>
       </c>
-      <c r="G60" t="s">
-        <v>255</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-ba</v>
-      </c>
-      <c r="I60" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ba</v>
-      </c>
-    </row>
-    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F61" t="s">
+      <c r="B93" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-mg</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-mg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>295</v>
       </c>
-      <c r="G61" t="s">
-        <v>255</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-ce</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ce</v>
-      </c>
-    </row>
-    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
+      <c r="B94" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ms</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ms</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>296</v>
       </c>
-      <c r="G62" t="s">
-        <v>255</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-df</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-df</v>
-      </c>
-    </row>
-    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-mt</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-mt</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>297</v>
       </c>
-      <c r="G63" t="s">
-        <v>255</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-es</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-es</v>
-      </c>
-    </row>
-    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F64" t="s">
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-pa</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-pa</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>298</v>
       </c>
-      <c r="G64" t="s">
-        <v>255</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-go</v>
-      </c>
-      <c r="I64" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-go</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65" t="s">
+      <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-pb</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-pb</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>299</v>
       </c>
-      <c r="G65" t="s">
-        <v>255</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-ma</v>
-      </c>
-      <c r="I65" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ma</v>
-      </c>
-    </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66" t="s">
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-pe</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-pe</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>300</v>
       </c>
-      <c r="G66" t="s">
-        <v>255</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="3"/>
-        <v>https://ips.saude.gov.br/sid/coren-mg</v>
-      </c>
-      <c r="I66" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-mg</v>
-      </c>
-    </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" t="s">
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-pi</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-pi</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>301</v>
       </c>
-      <c r="G67" t="s">
-        <v>255</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H109" si="5">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(F67))</f>
-        <v>https://ips.saude.gov.br/sid/coren-ms</v>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I109" si="6">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(F67))</f>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ms</v>
-      </c>
-    </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" t="s">
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-pr</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-pr</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>302</v>
       </c>
-      <c r="G68" t="s">
-        <v>255</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-mt</v>
-      </c>
-      <c r="I68" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-mt</v>
-      </c>
-    </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69" t="s">
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-rj</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-rj</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>303</v>
       </c>
-      <c r="G69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-pa</v>
-      </c>
-      <c r="I69" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-pa</v>
-      </c>
-    </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-rn</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-rn</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>304</v>
       </c>
-      <c r="G70" t="s">
-        <v>255</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-pb</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-pb</v>
-      </c>
-    </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-ro</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-ro</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>305</v>
       </c>
-      <c r="G71" t="s">
-        <v>255</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-pe</v>
-      </c>
-      <c r="I71" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-pe</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
+      <c r="B104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-rr</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-rr</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>306</v>
       </c>
-      <c r="G72" t="s">
-        <v>255</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-pi</v>
-      </c>
-      <c r="I72" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-pi</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73" t="s">
+      <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-rs</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-rs</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>307</v>
       </c>
-      <c r="G73" t="s">
-        <v>255</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-pr</v>
-      </c>
-      <c r="I73" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-pr</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74" t="s">
+      <c r="B106" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-sc</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-sc</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>308</v>
       </c>
-      <c r="G74" t="s">
-        <v>255</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-rj</v>
-      </c>
-      <c r="I74" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-rj</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75" t="s">
+      <c r="B107" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-se</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-se</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>309</v>
       </c>
-      <c r="G75" t="s">
-        <v>255</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-rn</v>
-      </c>
-      <c r="I75" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-rn</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
+      <c r="B108" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crm-sp</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crm-sp</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>310</v>
       </c>
-      <c r="G76" t="s">
-        <v>255</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-ro</v>
-      </c>
-      <c r="I76" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-ro</v>
-      </c>
-    </row>
-    <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
-        <v>311</v>
-      </c>
-      <c r="G77" t="s">
-        <v>255</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-rr</v>
-      </c>
-      <c r="I77" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-rr</v>
-      </c>
-    </row>
-    <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78" t="s">
-        <v>255</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-rs</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-rs</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G79" t="s">
-        <v>255</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-sc</v>
-      </c>
-      <c r="I79" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-sc</v>
-      </c>
-    </row>
-    <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80" t="s">
-        <v>314</v>
-      </c>
-      <c r="G80" t="s">
-        <v>255</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-se</v>
-      </c>
-      <c r="I80" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-se</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81" t="s">
-        <v>315</v>
-      </c>
-      <c r="G81" t="s">
-        <v>255</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-sp</v>
-      </c>
-      <c r="I81" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-sp</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
-        <v>316</v>
-      </c>
-      <c r="G82" t="s">
-        <v>255</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/coren-to</v>
-      </c>
-      <c r="I82" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/coren-to</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83" t="s">
-        <v>317</v>
-      </c>
-      <c r="G83" t="s">
-        <v>256</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ac</v>
-      </c>
-      <c r="I83" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ac</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>318</v>
-      </c>
-      <c r="G84" t="s">
-        <v>256</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-al</v>
-      </c>
-      <c r="I84" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-al</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
-        <v>319</v>
-      </c>
-      <c r="G85" t="s">
-        <v>256</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-am</v>
-      </c>
-      <c r="I85" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-am</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86" t="s">
-        <v>320</v>
-      </c>
-      <c r="G86" t="s">
-        <v>256</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ap</v>
-      </c>
-      <c r="I86" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ap</v>
-      </c>
-    </row>
-    <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87" t="s">
-        <v>321</v>
-      </c>
-      <c r="G87" t="s">
-        <v>256</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ba</v>
-      </c>
-      <c r="I87" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ba</v>
-      </c>
-    </row>
-    <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88" t="s">
-        <v>322</v>
-      </c>
-      <c r="G88" t="s">
-        <v>256</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ce</v>
-      </c>
-      <c r="I88" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ce</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89" t="s">
-        <v>323</v>
-      </c>
-      <c r="G89" t="s">
-        <v>256</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-df</v>
-      </c>
-      <c r="I89" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-df</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90" t="s">
-        <v>324</v>
-      </c>
-      <c r="G90" t="s">
-        <v>256</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-es</v>
-      </c>
-      <c r="I90" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-es</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91" t="s">
-        <v>325</v>
-      </c>
-      <c r="G91" t="s">
-        <v>256</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-go</v>
-      </c>
-      <c r="I91" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-go</v>
-      </c>
-    </row>
-    <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92" t="s">
-        <v>326</v>
-      </c>
-      <c r="G92" t="s">
-        <v>256</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ma</v>
-      </c>
-      <c r="I92" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ma</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93" t="s">
-        <v>327</v>
-      </c>
-      <c r="G93" t="s">
-        <v>256</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-mg</v>
-      </c>
-      <c r="I93" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-mg</v>
-      </c>
-    </row>
-    <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94" t="s">
-        <v>328</v>
-      </c>
-      <c r="G94" t="s">
-        <v>256</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ms</v>
-      </c>
-      <c r="I94" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ms</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
-        <v>329</v>
-      </c>
-      <c r="G95" t="s">
-        <v>256</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-mt</v>
-      </c>
-      <c r="I95" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-mt</v>
-      </c>
-    </row>
-    <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
-        <v>330</v>
-      </c>
-      <c r="G96" t="s">
-        <v>256</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-pa</v>
-      </c>
-      <c r="I96" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-pa</v>
-      </c>
-    </row>
-    <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97" t="s">
-        <v>331</v>
-      </c>
-      <c r="G97" t="s">
-        <v>256</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-pb</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-pb</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98" t="s">
-        <v>332</v>
-      </c>
-      <c r="G98" t="s">
-        <v>256</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-pe</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-pe</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99" t="s">
-        <v>333</v>
-      </c>
-      <c r="G99" t="s">
-        <v>256</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-pi</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-pi</v>
-      </c>
-    </row>
-    <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100" t="s">
-        <v>334</v>
-      </c>
-      <c r="G100" t="s">
-        <v>256</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-pr</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-pr</v>
-      </c>
-    </row>
-    <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F101" t="s">
-        <v>335</v>
-      </c>
-      <c r="G101" t="s">
-        <v>256</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-rj</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-rj</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F102" t="s">
-        <v>336</v>
-      </c>
-      <c r="G102" t="s">
-        <v>256</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-rn</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-rn</v>
-      </c>
-    </row>
-    <row r="103" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
-        <v>337</v>
-      </c>
-      <c r="G103" t="s">
-        <v>256</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-ro</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-ro</v>
-      </c>
-    </row>
-    <row r="104" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F104" t="s">
-        <v>338</v>
-      </c>
-      <c r="G104" t="s">
-        <v>256</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-rr</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-rr</v>
-      </c>
-    </row>
-    <row r="105" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F105" t="s">
-        <v>339</v>
-      </c>
-      <c r="G105" t="s">
-        <v>256</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-rs</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-rs</v>
-      </c>
-    </row>
-    <row r="106" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F106" t="s">
-        <v>340</v>
-      </c>
-      <c r="G106" t="s">
-        <v>256</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-sc</v>
-      </c>
-      <c r="I106" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-sc</v>
-      </c>
-    </row>
-    <row r="107" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
-        <v>341</v>
-      </c>
-      <c r="G107" t="s">
-        <v>256</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-se</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-se</v>
-      </c>
-    </row>
-    <row r="108" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F108" t="s">
-        <v>342</v>
-      </c>
-      <c r="G108" t="s">
-        <v>256</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crm-sp</v>
-      </c>
-      <c r="I108" t="str">
-        <f t="shared" si="6"/>
-        <v>https://ips.saude.gov.br/NamingSystem/crm-sp</v>
-      </c>
-    </row>
-    <row r="109" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F109" t="s">
-        <v>343</v>
-      </c>
-      <c r="G109" t="s">
-        <v>256</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="5"/>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="2"/>
         <v>https://ips.saude.gov.br/sid/crm-to</v>
       </c>
-      <c r="I109" t="str">
-        <f t="shared" si="6"/>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-to</v>
       </c>
     </row>

--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE339F07-F8A6-D340-808C-DFC319193682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1C4AA-E396-A64E-87F2-50B114AC8C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
   </bookViews>
@@ -3763,7 +3763,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1C4AA-E396-A64E-87F2-50B114AC8C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B32B4-9D95-0549-B8FB-1510D823FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
+    <workbookView xWindow="1380" yWindow="1580" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
   </bookViews>
   <sheets>
     <sheet name="Coren" sheetId="1" r:id="rId1"/>
     <sheet name="CRM" sheetId="2" r:id="rId2"/>
     <sheet name="CRO" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Lista Parte 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Lista Parte 2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="505">
   <si>
     <t>Relação de Conselhos Profissionais Regionais</t>
   </si>
@@ -979,13 +980,589 @@
   </si>
   <si>
     <t>attr:NamingSystem</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAL DE PSICOLOGIA</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAS DE FISIOTERAPIA E TERAPIA OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAL DE NUTRICIONISTA</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAL DE FONOAUDIOLOGIA</t>
+  </si>
+  <si>
+    <t>CRP-AC-RO</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-ac-ro</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-ac-ro</t>
+  </si>
+  <si>
+    <t>CRP-AL</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-al</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-al</t>
+  </si>
+  <si>
+    <t>CRP-AM-RR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-am-rr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-am-rr</t>
+  </si>
+  <si>
+    <t>CRP-BA</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-ba</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-ba</t>
+  </si>
+  <si>
+    <t>CRP-CE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-ce</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-ce</t>
+  </si>
+  <si>
+    <t>CRP-DF</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-df</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-df</t>
+  </si>
+  <si>
+    <t>CRP-ES</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-es</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-es</t>
+  </si>
+  <si>
+    <t>CRP-GO</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-go</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-go</t>
+  </si>
+  <si>
+    <t>CRP-MA</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-ma</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-ma</t>
+  </si>
+  <si>
+    <t>CRP-MG</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-mg</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-mg</t>
+  </si>
+  <si>
+    <t>CRP-MS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-ms</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-ms</t>
+  </si>
+  <si>
+    <t>CRP-MT</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-mt</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-mt</t>
+  </si>
+  <si>
+    <t>CRP-PA-AP</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-pa-ap</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-pa-ap</t>
+  </si>
+  <si>
+    <t>CRP-PB</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-pb</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-pb</t>
+  </si>
+  <si>
+    <t>CRP-PE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-pe</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-pe</t>
+  </si>
+  <si>
+    <t>CRP-PI</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-pi</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-pi</t>
+  </si>
+  <si>
+    <t>CRP-PR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-pr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-pr</t>
+  </si>
+  <si>
+    <t>CRP-RJ</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-rj</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-rj</t>
+  </si>
+  <si>
+    <t>CRP-RN</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-rn</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-rn</t>
+  </si>
+  <si>
+    <t>CRP-RS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-rs</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-rs</t>
+  </si>
+  <si>
+    <t>CRP-SC</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-sc</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-sc</t>
+  </si>
+  <si>
+    <t>CRP-SE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-se</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-se</t>
+  </si>
+  <si>
+    <t>CRP-SP</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-sp</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-sp</t>
+  </si>
+  <si>
+    <t>CRP-TO</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crp-to</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crp-to</t>
+  </si>
+  <si>
+    <t>CREFITO-BA</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-ba</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-ba</t>
+  </si>
+  <si>
+    <t>CREFITO-CE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-ce</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-ce</t>
+  </si>
+  <si>
+    <t>CREFITO-ES</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-es</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-es</t>
+  </si>
+  <si>
+    <t>CREFITO-GO-DF</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-go-df</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-go-df</t>
+  </si>
+  <si>
+    <t>CREFITO-MA</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-ma</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-ma</t>
+  </si>
+  <si>
+    <t>CREFITO-MG</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-mg</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-mg</t>
+  </si>
+  <si>
+    <t>CREFITO-MS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-ms</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-ms</t>
+  </si>
+  <si>
+    <t>CREFITO-MT</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-mt</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-mt</t>
+  </si>
+  <si>
+    <t>CREFITO-PA-AM-TO-RR-AP</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-pa-am-to-rr-ap</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-pa-am-to-rr-ap</t>
+  </si>
+  <si>
+    <t>CREFITO-PE-PB-AL-RN</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-pe-pb-al-rn</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-pe-pb-al-rn</t>
+  </si>
+  <si>
+    <t>CREFITO-PI</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-pi</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-pi</t>
+  </si>
+  <si>
+    <t>CREFITO-PR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-pr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-pr</t>
+  </si>
+  <si>
+    <t>CREFITO-RJ</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-rj</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-rj</t>
+  </si>
+  <si>
+    <t>CREFITO-RO-AC</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-ro-ac</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-ro-ac</t>
+  </si>
+  <si>
+    <t>CREFITO-RS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-rs</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-rs</t>
+  </si>
+  <si>
+    <t>CREFITO-SC</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-sc</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-sc</t>
+  </si>
+  <si>
+    <t>CREFITO-SE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-se</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-se</t>
+  </si>
+  <si>
+    <t>CREFITO-SP</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefito-sp</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefito-sp</t>
+  </si>
+  <si>
+    <t>CRN-AL</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-al</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-al</t>
+  </si>
+  <si>
+    <t>CRN-BA-SE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-ba-se</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-ba-se</t>
+  </si>
+  <si>
+    <t>CRN-CE-MA_PI</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-ce-ma_pi</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-ce-ma_pi</t>
+  </si>
+  <si>
+    <t>CRN-DF-GO-MT-TO</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-df-go-mt-to</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-df-go-mt-to</t>
+  </si>
+  <si>
+    <t>CRN-PA-AC-AM-AP-RO-RR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-pa-ac-am-ap-ro-rr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-pa-ac-am-ap-ro-rr</t>
+  </si>
+  <si>
+    <t>CRN-PE-AL-PB-RN</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-pe-al-pb-rn</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-pe-al-pb-rn</t>
+  </si>
+  <si>
+    <t>CRN-PR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-pr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-pr</t>
+  </si>
+  <si>
+    <t>CRN-RJ-ES</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-rj-es</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-rj-es</t>
+  </si>
+  <si>
+    <t>CRN-RS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-rs</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-rs</t>
+  </si>
+  <si>
+    <t>CRN-SC</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-sc</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-sc</t>
+  </si>
+  <si>
+    <t>CRN-SP-MS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crn-sp-ms</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crn-sp-ms</t>
+  </si>
+  <si>
+    <t>CREFONO-AM-AC-AP-PA-RO-RR</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-am-ac-ap-pa-ro-rr</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-am-ac-ap-pa-ro-rr</t>
+  </si>
+  <si>
+    <t>CREFONO-CE-MA-PI-RN</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-ce-ma-pi-rn</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-ce-ma-pi-rn</t>
+  </si>
+  <si>
+    <t>CREFONO-GO-DF-MS-MT-TO</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-go-df-ms-mt-to</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-go-df-ms-mt-to</t>
+  </si>
+  <si>
+    <t>CREFONO-MG-ES</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-mg-es</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-mg-es</t>
+  </si>
+  <si>
+    <t>CREFONO-PE-AL-BA-PB-SE</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-pe-al-ba-pb-se</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-pe-al-ba-pb-se</t>
+  </si>
+  <si>
+    <t>CREFONO-PR-SC</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-pr-sc</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-pr-sc</t>
+  </si>
+  <si>
+    <t>CREFONO-RJ</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-rj</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-rj</t>
+  </si>
+  <si>
+    <t>CREFONO-RS</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-rs</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-rs</t>
+  </si>
+  <si>
+    <t>CREFONO-SP</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/sid/crefono-sp</t>
+  </si>
+  <si>
+    <t>https://ips.saude.gov.br/NamingSystem/crefono-sp</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,6 +1621,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="AcuminPro"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1066,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,6 +1668,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1407,19 +1990,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +2036,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ac</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +2048,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-al</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +2060,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ap</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +2072,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-am</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +2084,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ba</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1513,7 +2096,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ce</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +2108,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-df</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1537,7 +2120,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-es</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +2132,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-go</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +2144,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ma</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +2156,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-mt</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +2168,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ms</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1597,7 +2180,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-mg</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1609,7 +2192,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pr</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +2204,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pb</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +2216,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pa</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +2228,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pe</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1657,7 +2240,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-pi</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1669,7 +2252,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rn</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +2264,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rs</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1693,7 +2276,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rj</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +2288,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-ro</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +2300,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-rr</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1729,7 +2312,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-sc</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1741,7 +2324,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-se</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1753,7 +2336,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/coren-sp</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1782,7 +2365,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
@@ -1790,7 +2373,7 @@
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1804,10 +2387,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
@@ -1822,7 +2405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1837,7 +2420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1852,7 +2435,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1867,7 +2450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1882,7 +2465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1897,7 +2480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +2517,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" bestFit="1" customWidth="1"/>
@@ -1942,7 +2525,7 @@
     <col min="4" max="4" width="54.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -1956,7 +2539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1971,7 +2554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +2569,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2001,7 +2584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2016,7 +2599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2031,7 +2614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2046,7 +2629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -2061,7 +2644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2076,7 +2659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2091,7 +2674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2103,7 +2686,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ma</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2115,7 +2698,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-mt</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2127,7 +2710,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ms</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2139,7 +2722,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-mg</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2151,7 +2734,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pa</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2163,7 +2746,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pb</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -2175,7 +2758,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pr</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -2187,7 +2770,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pe</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2199,7 +2782,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-pi</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -2211,7 +2794,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rn</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2223,7 +2806,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rs</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -2235,7 +2818,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rj</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -2247,7 +2830,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-ro</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -2259,7 +2842,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-rr</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -2271,7 +2854,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-sc</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2283,7 +2866,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-sp</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2295,7 +2878,7 @@
         <v>https://ips.saude.gor.br/NamingSystem/cro-se</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -2323,14 +2906,14 @@
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>196</v>
       </c>
@@ -2344,7 +2927,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>141</v>
       </c>
@@ -2360,7 +2943,7 @@
         <v>CRF-AC</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2376,7 +2959,7 @@
         <v>CRF-AL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2392,7 +2975,7 @@
         <v>CRF-AM</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2408,7 +2991,7 @@
         <v>CRF-AP</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -2424,7 +3007,7 @@
         <v>CRF-BA</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -2440,7 +3023,7 @@
         <v>CRF-CE</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -2456,7 +3039,7 @@
         <v>CRF-DF</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -2472,7 +3055,7 @@
         <v>CRF-ES</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -2488,7 +3071,7 @@
         <v>CRF-GO</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2504,7 +3087,7 @@
         <v>CRF-MA</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -2520,7 +3103,7 @@
         <v>CRF-MG</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -2536,7 +3119,7 @@
         <v>CRF-MS</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -2552,7 +3135,7 @@
         <v>CRF-MT</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -2568,7 +3151,7 @@
         <v>CRF-PA</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -2584,7 +3167,7 @@
         <v>CRF-PB</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -2600,7 +3183,7 @@
         <v>CRF-PE</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -2616,7 +3199,7 @@
         <v>CRF-PI</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2632,7 +3215,7 @@
         <v>CRF-PR</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -2648,7 +3231,7 @@
         <v>CRF-RJ</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -2664,7 +3247,7 @@
         <v>CRF-RN</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -2680,7 +3263,7 @@
         <v>CRF-RO</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -2696,7 +3279,7 @@
         <v>CRF-RR</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -2712,7 +3295,7 @@
         <v>CRF-RS</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -2728,7 +3311,7 @@
         <v>CRF-SC</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -2744,7 +3327,7 @@
         <v>CRF-SE</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -2760,7 +3343,7 @@
         <v>CRF-SP</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -2776,7 +3359,7 @@
         <v>CRF-TO</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
@@ -2792,7 +3375,7 @@
         <v>CRO-AC</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>89</v>
       </c>
@@ -2808,7 +3391,7 @@
         <v>CRO-AL</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>91</v>
       </c>
@@ -2824,7 +3407,7 @@
         <v>CRO-AP</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
@@ -2840,7 +3423,7 @@
         <v>CRO-AM</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
@@ -2856,7 +3439,7 @@
         <v>CRO-BA</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -2872,7 +3455,7 @@
         <v>CRO-CE</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -2888,7 +3471,7 @@
         <v>CRO-DF</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>101</v>
       </c>
@@ -2904,7 +3487,7 @@
         <v>CRO-ES</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>103</v>
       </c>
@@ -2920,7 +3503,7 @@
         <v>CRO-GO</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>105</v>
       </c>
@@ -2936,7 +3519,7 @@
         <v>CRO-MA</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +3535,7 @@
         <v>CRO-MT</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +3551,7 @@
         <v>CRO-MS</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +3567,7 @@
         <v>CRO-MG</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
@@ -3000,7 +3583,7 @@
         <v>CRO-PA</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
@@ -3016,7 +3599,7 @@
         <v>CRO-PB</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>117</v>
       </c>
@@ -3032,7 +3615,7 @@
         <v>CRO-PR</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
         <v>119</v>
       </c>
@@ -3048,7 +3631,7 @@
         <v>CRO-PE</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>121</v>
       </c>
@@ -3064,7 +3647,7 @@
         <v>CRO-PI</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>123</v>
       </c>
@@ -3080,7 +3663,7 @@
         <v>CRO-RN</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>125</v>
       </c>
@@ -3096,7 +3679,7 @@
         <v>CRO-RS</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>127</v>
       </c>
@@ -3112,7 +3695,7 @@
         <v>CRO-RJ</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>129</v>
       </c>
@@ -3128,7 +3711,7 @@
         <v>CRO-RO</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>131</v>
       </c>
@@ -3144,7 +3727,7 @@
         <v>CRO-RR</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>133</v>
       </c>
@@ -3160,7 +3743,7 @@
         <v>CRO-SC</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>135</v>
       </c>
@@ -3176,7 +3759,7 @@
         <v>CRO-SP</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>137</v>
       </c>
@@ -3192,7 +3775,7 @@
         <v>CRO-SE</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>139</v>
       </c>
@@ -3208,7 +3791,7 @@
         <v>CRO-TO</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3807,7 @@
         <v>COREN-AC</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3823,7 @@
         <v>COREN-AL</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
         <v>11</v>
       </c>
@@ -3256,7 +3839,7 @@
         <v>COREN-AP</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>13</v>
       </c>
@@ -3272,7 +3855,7 @@
         <v>COREN-AM</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -3288,7 +3871,7 @@
         <v>COREN-BA</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>17</v>
       </c>
@@ -3304,7 +3887,7 @@
         <v>COREN-CE</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3903,7 @@
         <v>COREN-DF</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>21</v>
       </c>
@@ -3336,7 +3919,7 @@
         <v>COREN-ES</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>23</v>
       </c>
@@ -3352,7 +3935,7 @@
         <v>COREN-GO</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>25</v>
       </c>
@@ -3368,7 +3951,7 @@
         <v>COREN-MA</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>27</v>
       </c>
@@ -3384,7 +3967,7 @@
         <v>COREN-MT</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>29</v>
       </c>
@@ -3400,7 +3983,7 @@
         <v>COREN-MS</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>31</v>
       </c>
@@ -3416,7 +3999,7 @@
         <v>COREN-MG</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>33</v>
       </c>
@@ -3432,7 +4015,7 @@
         <v>COREN-PR</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>35</v>
       </c>
@@ -3448,7 +4031,7 @@
         <v>COREN-PB</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>37</v>
       </c>
@@ -3464,7 +4047,7 @@
         <v>COREN-PA</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>39</v>
       </c>
@@ -3480,7 +4063,7 @@
         <v>COREN-PE</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>41</v>
       </c>
@@ -3496,7 +4079,7 @@
         <v>COREN-PI</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>43</v>
       </c>
@@ -3512,7 +4095,7 @@
         <v>COREN-RN</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>45</v>
       </c>
@@ -3528,7 +4111,7 @@
         <v>COREN-RS</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>47</v>
       </c>
@@ -3544,7 +4127,7 @@
         <v>COREN-RJ</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>49</v>
       </c>
@@ -3560,7 +4143,7 @@
         <v>COREN-RO</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +4159,7 @@
         <v>COREN-RR</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -3592,7 +4175,7 @@
         <v>COREN-SC</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="8" t="s">
         <v>55</v>
       </c>
@@ -3608,7 +4191,7 @@
         <v>COREN-SE</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>57</v>
       </c>
@@ -3624,7 +4207,7 @@
         <v>COREN-SP</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="8" t="s">
         <v>59</v>
       </c>
@@ -3640,7 +4223,7 @@
         <v>COREN-TO</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>64</v>
       </c>
@@ -3656,7 +4239,7 @@
         <v>CRM-AC</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="8" t="s">
         <v>67</v>
       </c>
@@ -3672,7 +4255,7 @@
         <v>CREMAP</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>70</v>
       </c>
@@ -3688,7 +4271,7 @@
         <v>CREMAM</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>73</v>
       </c>
@@ -3704,7 +4287,7 @@
         <v>CREMEPA</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>76</v>
       </c>
@@ -3720,7 +4303,7 @@
         <v>CREMERO</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>79</v>
       </c>
@@ -3736,7 +4319,7 @@
         <v>CRM-RR</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>82</v>
       </c>
@@ -3760,21 +4343,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AF1733-39D4-42CC-8F74-2DC28C8FC5BF}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>229</v>
       </c>
@@ -3788,7 +4371,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -3804,7 +4387,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ac</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3820,7 +4403,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-al</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -3836,7 +4419,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-am</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -3852,7 +4435,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ap</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3868,7 +4451,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ba</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3884,7 +4467,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ce</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>204</v>
       </c>
@@ -3900,7 +4483,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-df</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -3916,7 +4499,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-es</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -3932,7 +4515,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-go</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>207</v>
       </c>
@@ -3948,7 +4531,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ma</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -3964,7 +4547,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-mg</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -3980,7 +4563,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ms</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -3996,7 +4579,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-mt</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -4012,7 +4595,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-pa</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>212</v>
       </c>
@@ -4028,7 +4611,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-pb</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -4044,7 +4627,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-pe</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -4060,7 +4643,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-pi</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -4076,7 +4659,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-pr</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -4092,7 +4675,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-rj</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -4108,7 +4691,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-rn</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -4124,7 +4707,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-ro</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -4140,7 +4723,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-rr</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -4156,7 +4739,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-rs</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -4172,7 +4755,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-sc</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -4188,7 +4771,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-se</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -4204,7 +4787,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-sp</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>224</v>
       </c>
@@ -4220,7 +4803,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crf-to</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>230</v>
       </c>
@@ -4236,7 +4819,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ac</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -4252,7 +4835,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-al</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -4268,7 +4851,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-am</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -4284,7 +4867,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ap</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>234</v>
       </c>
@@ -4300,7 +4883,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ba</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>235</v>
       </c>
@@ -4316,7 +4899,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ce</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>236</v>
       </c>
@@ -4332,7 +4915,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-df</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>237</v>
       </c>
@@ -4348,7 +4931,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-es</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>238</v>
       </c>
@@ -4364,7 +4947,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-go</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>239</v>
       </c>
@@ -4380,7 +4963,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ma</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -4396,7 +4979,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-mg</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>241</v>
       </c>
@@ -4412,7 +4995,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ms</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -4428,7 +5011,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-mt</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -4444,7 +5027,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-pa</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -4460,7 +5043,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-pb</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>245</v>
       </c>
@@ -4476,7 +5059,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-pe</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>246</v>
       </c>
@@ -4492,7 +5075,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-pi</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -4508,7 +5091,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-pr</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>248</v>
       </c>
@@ -4524,7 +5107,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-rj</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -4540,7 +5123,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-rn</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>250</v>
       </c>
@@ -4556,7 +5139,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-ro</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>251</v>
       </c>
@@ -4572,7 +5155,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-rr</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -4588,7 +5171,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-rs</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>253</v>
       </c>
@@ -4604,7 +5187,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-sc</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -4620,7 +5203,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-se</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -4636,7 +5219,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-sp</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -4652,7 +5235,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/cro-to</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>257</v>
       </c>
@@ -4668,7 +5251,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ac</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -4684,7 +5267,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-al</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>259</v>
       </c>
@@ -4700,7 +5283,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-am</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -4716,7 +5299,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ap</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -4732,7 +5315,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ba</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>262</v>
       </c>
@@ -4748,7 +5331,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ce</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>263</v>
       </c>
@@ -4764,7 +5347,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-df</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -4780,7 +5363,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-es</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>265</v>
       </c>
@@ -4796,7 +5379,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-go</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -4812,7 +5395,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ma</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>267</v>
       </c>
@@ -4828,7 +5411,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-mg</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -4836,15 +5419,15 @@
         <v>227</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C109" si="2">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A67))</f>
+        <f t="shared" ref="C67:C128" si="2">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A67))</f>
         <v>https://ips.saude.gov.br/sid/coren-ms</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D109" si="3">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A67))</f>
+        <f t="shared" ref="D67:D128" si="3">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A67))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ms</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>269</v>
       </c>
@@ -4860,7 +5443,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-mt</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -4876,7 +5459,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-pa</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -4892,7 +5475,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-pb</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -4908,7 +5491,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-pe</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -4924,7 +5507,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-pi</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>274</v>
       </c>
@@ -4940,7 +5523,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-pr</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>275</v>
       </c>
@@ -4956,7 +5539,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-rj</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>276</v>
       </c>
@@ -4972,7 +5555,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-rn</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>277</v>
       </c>
@@ -4988,7 +5571,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-ro</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>278</v>
       </c>
@@ -5004,7 +5587,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-rr</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>279</v>
       </c>
@@ -5020,7 +5603,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-rs</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>280</v>
       </c>
@@ -5036,7 +5619,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-sc</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>281</v>
       </c>
@@ -5052,7 +5635,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-se</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -5068,7 +5651,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-sp</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>283</v>
       </c>
@@ -5084,7 +5667,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/coren-to</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>284</v>
       </c>
@@ -5100,7 +5683,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crm-ac</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>285</v>
       </c>
@@ -5116,7 +5699,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crm-al</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>286</v>
       </c>
@@ -5132,7 +5715,7 @@
         <v>https://ips.saude.gov.br/NamingSystem/crm-am</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>287</v>
       </c>
@@ -5147,8 +5730,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ap</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" t="str">
+        <f>RIGHT(F86,2)</f>
+        <v>AC</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -5163,8 +5753,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ba</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>285</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" ref="G87:G112" si="4">RIGHT(F87,2)</f>
+        <v>AL</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>289</v>
       </c>
@@ -5179,8 +5776,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ce</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>286</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="4"/>
+        <v>AM</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>290</v>
       </c>
@@ -5195,8 +5799,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-df</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>287</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="4"/>
+        <v>AP</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>291</v>
       </c>
@@ -5211,8 +5822,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-es</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="4"/>
+        <v>BA</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>292</v>
       </c>
@@ -5227,8 +5845,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-go</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>289</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="4"/>
+        <v>CE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>293</v>
       </c>
@@ -5243,8 +5868,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ma</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>290</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="4"/>
+        <v>DF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -5259,8 +5891,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-mg</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>291</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="4"/>
+        <v>ES</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>295</v>
       </c>
@@ -5275,8 +5914,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ms</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>292</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="4"/>
+        <v>GO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>296</v>
       </c>
@@ -5291,8 +5937,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-mt</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>293</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="4"/>
+        <v>MA</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>297</v>
       </c>
@@ -5307,8 +5960,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pa</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>294</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="4"/>
+        <v>MG</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>298</v>
       </c>
@@ -5323,8 +5983,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pb</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>295</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="4"/>
+        <v>MS</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>299</v>
       </c>
@@ -5339,8 +6006,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pe</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="4"/>
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>300</v>
       </c>
@@ -5355,8 +6029,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pi</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>297</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="4"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>301</v>
       </c>
@@ -5371,8 +6052,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pr</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>298</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="4"/>
+        <v>PB</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -5387,8 +6075,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rj</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>299</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="4"/>
+        <v>PE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>303</v>
       </c>
@@ -5403,8 +6098,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rn</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="4"/>
+        <v>PI</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>304</v>
       </c>
@@ -5419,8 +6121,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ro</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>301</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="4"/>
+        <v>PR</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>305</v>
       </c>
@@ -5435,8 +6144,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rr</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="4"/>
+        <v>RJ</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>306</v>
       </c>
@@ -5451,8 +6167,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rs</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>303</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="4"/>
+        <v>RN</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>307</v>
       </c>
@@ -5467,8 +6190,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-sc</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>304</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="4"/>
+        <v>RO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -5483,8 +6213,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-se</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>305</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="4"/>
+        <v>RR</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>309</v>
       </c>
@@ -5499,8 +6236,15 @@
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-sp</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>306</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="4"/>
+        <v>RS</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>310</v>
       </c>
@@ -5514,6 +6258,1997 @@
       <c r="D109" t="str">
         <f t="shared" si="3"/>
         <v>https://ips.saude.gov.br/NamingSystem/crm-to</v>
+      </c>
+      <c r="F109" t="s">
+        <v>307</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="4"/>
+        <v>SC</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="str">
+        <f>_xlfn.CONCAT("CRP-",G86,"-RO")</f>
+        <v>CRP-AC-RO</v>
+      </c>
+      <c r="B110" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-ac-ro</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-ac-ro</v>
+      </c>
+      <c r="F110" t="s">
+        <v>308</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="4"/>
+        <v>SE</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="str">
+        <f>_xlfn.CONCAT("CRP-",G87)</f>
+        <v>CRP-AL</v>
+      </c>
+      <c r="B111" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-al</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-al</v>
+      </c>
+      <c r="F111" t="s">
+        <v>309</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="4"/>
+        <v>SP</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="str">
+        <f>_xlfn.CONCAT("CRP-",G88,"-RR")</f>
+        <v>CRP-AM-RR</v>
+      </c>
+      <c r="B112" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-am-rr</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-am-rr</v>
+      </c>
+      <c r="F112" t="s">
+        <v>310</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="4"/>
+        <v>TO</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="str">
+        <f>_xlfn.CONCAT("CRP-",G90)</f>
+        <v>CRP-BA</v>
+      </c>
+      <c r="B113" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-ba</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-ba</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="str">
+        <f>_xlfn.CONCAT("CRP-",G91)</f>
+        <v>CRP-CE</v>
+      </c>
+      <c r="B114" t="s">
+        <v>313</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-ce</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-ce</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="str">
+        <f>_xlfn.CONCAT("CRP-",G92)</f>
+        <v>CRP-DF</v>
+      </c>
+      <c r="B115" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-df</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-df</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="str">
+        <f>_xlfn.CONCAT("CRP-",G93)</f>
+        <v>CRP-ES</v>
+      </c>
+      <c r="B116" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-es</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-es</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="str">
+        <f>_xlfn.CONCAT("CRP-",G94)</f>
+        <v>CRP-GO</v>
+      </c>
+      <c r="B117" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-go</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-go</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="str">
+        <f>_xlfn.CONCAT("CRP-",G95)</f>
+        <v>CRP-MA</v>
+      </c>
+      <c r="B118" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-ma</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-ma</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="str">
+        <f>_xlfn.CONCAT("CRP-",G96)</f>
+        <v>CRP-MG</v>
+      </c>
+      <c r="B119" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-mg</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-mg</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="str">
+        <f>_xlfn.CONCAT("CRP-",G97)</f>
+        <v>CRP-MS</v>
+      </c>
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-ms</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-ms</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="str">
+        <f>_xlfn.CONCAT("CRP-",G98)</f>
+        <v>CRP-MT</v>
+      </c>
+      <c r="B121" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-mt</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-mt</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="str">
+        <f>_xlfn.CONCAT("CRP-",G99,"-AP")</f>
+        <v>CRP-PA-AP</v>
+      </c>
+      <c r="B122" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-pa-ap</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-pa-ap</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="str">
+        <f>_xlfn.CONCAT("CRP-",G100)</f>
+        <v>CRP-PB</v>
+      </c>
+      <c r="B123" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-pb</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-pb</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="str">
+        <f>_xlfn.CONCAT("CRP-",G101)</f>
+        <v>CRP-PE</v>
+      </c>
+      <c r="B124" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-pe</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-pe</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="str">
+        <f>_xlfn.CONCAT("CRP-",G102)</f>
+        <v>CRP-PI</v>
+      </c>
+      <c r="B125" t="s">
+        <v>313</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-pi</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-pi</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="str">
+        <f>_xlfn.CONCAT("CRP-",G103)</f>
+        <v>CRP-PR</v>
+      </c>
+      <c r="B126" t="s">
+        <v>313</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-pr</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-pr</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="str">
+        <f>_xlfn.CONCAT("CRP-",G104)</f>
+        <v>CRP-RJ</v>
+      </c>
+      <c r="B127" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-rj</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-rj</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="str">
+        <f>_xlfn.CONCAT("CRP-",G105)</f>
+        <v>CRP-RN</v>
+      </c>
+      <c r="B128" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="2"/>
+        <v>https://ips.saude.gov.br/sid/crp-rn</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-rn</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="str">
+        <f>_xlfn.CONCAT("CRP-",G108)</f>
+        <v>CRP-RS</v>
+      </c>
+      <c r="B129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" ref="C129:C171" si="5">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A129))</f>
+        <v>https://ips.saude.gov.br/sid/crp-rs</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" ref="D129:D171" si="6">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A129))</f>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-rs</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="str">
+        <f>_xlfn.CONCAT("CRP-",G109)</f>
+        <v>CRP-SC</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crp-sc</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-sc</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="str">
+        <f>_xlfn.CONCAT("CRP-",G110)</f>
+        <v>CRP-SE</v>
+      </c>
+      <c r="B131" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crp-se</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-se</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="str">
+        <f>_xlfn.CONCAT("CRP-",G111)</f>
+        <v>CRP-SP</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crp-sp</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-sp</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="str">
+        <f>_xlfn.CONCAT("CRP-",G112)</f>
+        <v>CRP-TO</v>
+      </c>
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crp-to</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crp-to</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="19">
+      <c r="A134" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G90)</f>
+        <v>CREFITO-BA</v>
+      </c>
+      <c r="B134" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ba</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-ba</v>
+      </c>
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G91)</f>
+        <v>CREFITO-CE</v>
+      </c>
+      <c r="B135" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ce</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-ce</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G93)</f>
+        <v>CREFITO-ES</v>
+      </c>
+      <c r="B136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-es</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-es</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="19">
+      <c r="A137" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G94,"-DF")</f>
+        <v>CREFITO-GO-DF</v>
+      </c>
+      <c r="B137" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-go-df</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-go-df</v>
+      </c>
+      <c r="E137" s="11"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G95)</f>
+        <v>CREFITO-MA</v>
+      </c>
+      <c r="B138" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ma</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-ma</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G96)</f>
+        <v>CREFITO-MG</v>
+      </c>
+      <c r="B139" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-mg</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-mg</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G97)</f>
+        <v>CREFITO-MS</v>
+      </c>
+      <c r="B140" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ms</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-ms</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G98)</f>
+        <v>CREFITO-MT</v>
+      </c>
+      <c r="B141" t="s">
+        <v>314</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-mt</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-mt</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G99,"-AM-TO-RR-AP")</f>
+        <v>CREFITO-PA-AM-TO-RR-AP</v>
+      </c>
+      <c r="B142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pa-am-to-rr-ap</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-pa-am-to-rr-ap</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G101,"-PB-AL-RN")</f>
+        <v>CREFITO-PE-PB-AL-RN</v>
+      </c>
+      <c r="B143" t="s">
+        <v>314</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pe-pb-al-rn</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-pe-pb-al-rn</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G102)</f>
+        <v>CREFITO-PI</v>
+      </c>
+      <c r="B144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pi</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-pi</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G103)</f>
+        <v>CREFITO-PR</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pr</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-pr</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G104)</f>
+        <v>CREFITO-RJ</v>
+      </c>
+      <c r="B146" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-rj</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-rj</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G106,"-AC")</f>
+        <v>CREFITO-RO-AC</v>
+      </c>
+      <c r="B147" t="s">
+        <v>314</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ro-ac</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-ro-ac</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G108)</f>
+        <v>CREFITO-RS</v>
+      </c>
+      <c r="B148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-rs</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-rs</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G109)</f>
+        <v>CREFITO-SC</v>
+      </c>
+      <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-sc</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-sc</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G110)</f>
+        <v>CREFITO-SE</v>
+      </c>
+      <c r="B150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-se</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-se</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="str">
+        <f>_xlfn.CONCAT("CREFITO-",G111)</f>
+        <v>CREFITO-SP</v>
+      </c>
+      <c r="B151" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefito-sp</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefito-sp</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="str">
+        <f>_xlfn.CONCAT("CRN-",G87)</f>
+        <v>CRN-AL</v>
+      </c>
+      <c r="B152" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-al</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-al</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="str">
+        <f>_xlfn.CONCAT("CRN-",G90,"-SE")</f>
+        <v>CRN-BA-SE</v>
+      </c>
+      <c r="B153" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-ba-se</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-ba-se</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="str">
+        <f>_xlfn.CONCAT("CRN-",G91,"-MA_PI")</f>
+        <v>CRN-CE-MA_PI</v>
+      </c>
+      <c r="B154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-ce-ma_pi</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-ce-ma_pi</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="str">
+        <f>_xlfn.CONCAT("CRN-",G92,"-GO-MT-TO")</f>
+        <v>CRN-DF-GO-MT-TO</v>
+      </c>
+      <c r="B155" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-df-go-mt-to</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-df-go-mt-to</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="str">
+        <f>_xlfn.CONCAT("CRN-",G99,"-AC-AM-AP-RO-RR")</f>
+        <v>CRN-PA-AC-AM-AP-RO-RR</v>
+      </c>
+      <c r="B156" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-pa-ac-am-ap-ro-rr</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-pa-ac-am-ap-ro-rr</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="str">
+        <f>_xlfn.CONCAT("CRN-",G101,"-AL-PB-RN")</f>
+        <v>CRN-PE-AL-PB-RN</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-pe-al-pb-rn</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-pe-al-pb-rn</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="str">
+        <f>_xlfn.CONCAT("CRN-",G103)</f>
+        <v>CRN-PR</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-pr</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-pr</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="str">
+        <f>_xlfn.CONCAT("CRN-",G104,"-ES")</f>
+        <v>CRN-RJ-ES</v>
+      </c>
+      <c r="B159" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-rj-es</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-rj-es</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="str">
+        <f>_xlfn.CONCAT("CRN-",G108)</f>
+        <v>CRN-RS</v>
+      </c>
+      <c r="B160" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-rs</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-rs</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="str">
+        <f>_xlfn.CONCAT("CRN-",G109)</f>
+        <v>CRN-SC</v>
+      </c>
+      <c r="B161" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-sc</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-sc</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="str">
+        <f>_xlfn.CONCAT("CRN-",G111,"-MS")</f>
+        <v>CRN-SP-MS</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crn-sp-ms</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crn-sp-ms</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G88,"-AC-AP-PA-RO-RR")</f>
+        <v>CREFONO-AM-AC-AP-PA-RO-RR</v>
+      </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-am-ac-ap-pa-ro-rr</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-am-ac-ap-pa-ro-rr</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G91,"-MA-PI-RN")</f>
+        <v>CREFONO-CE-MA-PI-RN</v>
+      </c>
+      <c r="B164" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-ce-ma-pi-rn</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-ce-ma-pi-rn</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G94,"-DF-MS-MT-TO")</f>
+        <v>CREFONO-GO-DF-MS-MT-TO</v>
+      </c>
+      <c r="B165" t="s">
+        <v>316</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-go-df-ms-mt-to</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-go-df-ms-mt-to</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G96,"-ES")</f>
+        <v>CREFONO-MG-ES</v>
+      </c>
+      <c r="B166" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-mg-es</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-mg-es</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G101,"-AL-BA-PB-SE")</f>
+        <v>CREFONO-PE-AL-BA-PB-SE</v>
+      </c>
+      <c r="B167" t="s">
+        <v>316</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-pe-al-ba-pb-se</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-pe-al-ba-pb-se</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G103,"-SC")</f>
+        <v>CREFONO-PR-SC</v>
+      </c>
+      <c r="B168" t="s">
+        <v>316</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-pr-sc</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-pr-sc</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G104)</f>
+        <v>CREFONO-RJ</v>
+      </c>
+      <c r="B169" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-rj</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-rj</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G108)</f>
+        <v>CREFONO-RS</v>
+      </c>
+      <c r="B170" t="s">
+        <v>316</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-rs</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-rs</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="str">
+        <f>_xlfn.CONCAT("CREFONO-",G111)</f>
+        <v>CREFONO-SP</v>
+      </c>
+      <c r="B171" t="s">
+        <v>316</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="5"/>
+        <v>https://ips.saude.gov.br/sid/crefono-sp</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="6"/>
+        <v>https://ips.saude.gov.br/NamingSystem/crefono-sp</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="A137 A155 A153 A159 A157 A167 A168" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7807BF-0199-BE43-92F3-4D6E74E5BE18}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" t="s">
+        <v>381</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" t="s">
+        <v>420</v>
+      </c>
+      <c r="D36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>422</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" t="s">
+        <v>432</v>
+      </c>
+      <c r="D40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>437</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>440</v>
+      </c>
+      <c r="B43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" t="s">
+        <v>441</v>
+      </c>
+      <c r="D43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
+      <c r="D48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" t="s">
+        <v>462</v>
+      </c>
+      <c r="D50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>465</v>
+      </c>
+      <c r="D51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>467</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>470</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" t="s">
+        <v>471</v>
+      </c>
+      <c r="D53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>473</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" t="s">
+        <v>474</v>
+      </c>
+      <c r="D54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>476</v>
+      </c>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" t="s">
+        <v>477</v>
+      </c>
+      <c r="D55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" t="s">
+        <v>483</v>
+      </c>
+      <c r="D57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C58" t="s">
+        <v>486</v>
+      </c>
+      <c r="D58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>488</v>
+      </c>
+      <c r="B59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" t="s">
+        <v>492</v>
+      </c>
+      <c r="D60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" t="s">
+        <v>495</v>
+      </c>
+      <c r="D61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" t="s">
+        <v>498</v>
+      </c>
+      <c r="D62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>500</v>
+      </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
+        <v>501</v>
+      </c>
+      <c r="D63" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/ConselhosRegionaisProfissionais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Profissional/CargaProfissional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B32B4-9D95-0549-B8FB-1510D823FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2835BA24-399F-A14F-B96C-5D8376BFE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1580" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
+    <workbookView xWindow="1380" yWindow="1580" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{70EAEBD9-921A-D34A-B44F-4334556C3409}"/>
   </bookViews>
   <sheets>
     <sheet name="Coren" sheetId="1" r:id="rId1"/>
@@ -4345,15 +4345,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AF1733-39D4-42CC-8F74-2DC28C8FC5BF}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="64.1640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4365,1369 +4365,1369 @@
         <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" t="str">
+        <f>CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B2))</f>
+        <v>https://ips.saude.gov.br/sid/crf-ac</v>
+      </c>
+      <c r="B2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>225</v>
       </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A2))</f>
-        <v>https://ips.saude.gov.br/sid/crf-ac</v>
-      </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A2))</f>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B2))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ac</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A26" si="0">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B3))</f>
+        <v>https://ips.saude.gov.br/sid/crf-al</v>
+      </c>
+      <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>225</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A3))</f>
-        <v>https://ips.saude.gov.br/sid/crf-al</v>
-      </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A3))</f>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B3))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-al</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-am</v>
+      </c>
+      <c r="B4" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>225</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-am</v>
-      </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B4))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-am</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ap</v>
+      </c>
+      <c r="B5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ap</v>
-      </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B5))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ap</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ba</v>
+      </c>
+      <c r="B6" t="s">
         <v>202</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ba</v>
-      </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B6))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ba</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ce</v>
+      </c>
+      <c r="B7" t="s">
         <v>203</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>225</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ce</v>
-      </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B7))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ce</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-df</v>
+      </c>
+      <c r="B8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-df</v>
-      </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B8))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-df</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-es</v>
+      </c>
+      <c r="B9" t="s">
         <v>205</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-es</v>
-      </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B9))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-es</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-go</v>
+      </c>
+      <c r="B10" t="s">
         <v>206</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>225</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-go</v>
-      </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B10))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-go</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ma</v>
+      </c>
+      <c r="B11" t="s">
         <v>207</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>225</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ma</v>
-      </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B11))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ma</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-mg</v>
+      </c>
+      <c r="B12" t="s">
         <v>208</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-mg</v>
-      </c>
       <c r="D12" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B12))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-mg</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ms</v>
+      </c>
+      <c r="B13" t="s">
         <v>209</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ms</v>
-      </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B13))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ms</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-mt</v>
+      </c>
+      <c r="B14" t="s">
         <v>210</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-mt</v>
-      </c>
       <c r="D14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B14))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-mt</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pa</v>
+      </c>
+      <c r="B15" t="s">
         <v>211</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>225</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-pa</v>
-      </c>
       <c r="D15" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B15))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-pa</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pb</v>
+      </c>
+      <c r="B16" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>225</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-pb</v>
-      </c>
       <c r="D16" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B16))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-pb</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pe</v>
+      </c>
+      <c r="B17" t="s">
         <v>213</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>225</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-pe</v>
-      </c>
       <c r="D17" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B17))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-pe</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pi</v>
+      </c>
+      <c r="B18" t="s">
         <v>214</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>225</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-pi</v>
-      </c>
       <c r="D18" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B18))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-pi</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-pr</v>
+      </c>
+      <c r="B19" t="s">
         <v>215</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>225</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-pr</v>
-      </c>
       <c r="D19" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B19))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-pr</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rj</v>
+      </c>
+      <c r="B20" t="s">
         <v>216</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>225</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-rj</v>
-      </c>
       <c r="D20" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B20))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-rj</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rn</v>
+      </c>
+      <c r="B21" t="s">
         <v>217</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>225</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-rn</v>
-      </c>
       <c r="D21" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B21))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-rn</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-ro</v>
+      </c>
+      <c r="B22" t="s">
         <v>218</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>225</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-ro</v>
-      </c>
       <c r="D22" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B22))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-ro</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rr</v>
+      </c>
+      <c r="B23" t="s">
         <v>219</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>225</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-rr</v>
-      </c>
       <c r="D23" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B23))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-rr</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-rs</v>
+      </c>
+      <c r="B24" t="s">
         <v>220</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>225</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-rs</v>
-      </c>
       <c r="D24" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B24))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-rs</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-sc</v>
+      </c>
+      <c r="B25" t="s">
         <v>221</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>225</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-sc</v>
-      </c>
       <c r="D25" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B25))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-sc</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ips.saude.gov.br/sid/crf-se</v>
+      </c>
+      <c r="B26" t="s">
         <v>222</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>225</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-se</v>
-      </c>
       <c r="D26" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B26))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-se</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" t="str">
+        <f>CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B27))</f>
+        <v>https://ips.saude.gov.br/sid/crf-sp</v>
+      </c>
+      <c r="B27" t="s">
         <v>223</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>225</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-sp</v>
-      </c>
       <c r="D27" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B27))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-sp</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" t="str">
+        <f t="shared" ref="A28:A91" si="1">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B28))</f>
+        <v>https://ips.saude.gov.br/sid/crf-to</v>
+      </c>
+      <c r="B28" t="s">
         <v>224</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>225</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/crf-to</v>
-      </c>
       <c r="D28" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B28))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crf-to</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ac</v>
+      </c>
+      <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>226</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ac</v>
-      </c>
       <c r="D29" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B29))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ac</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-al</v>
+      </c>
+      <c r="B30" t="s">
         <v>231</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>226</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-al</v>
-      </c>
       <c r="D30" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B30))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-al</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-am</v>
+      </c>
+      <c r="B31" t="s">
         <v>232</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>226</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-am</v>
-      </c>
       <c r="D31" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B31))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-am</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ap</v>
+      </c>
+      <c r="B32" t="s">
         <v>233</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>226</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ap</v>
-      </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B32))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ap</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ba</v>
+      </c>
+      <c r="B33" t="s">
         <v>234</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>226</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ba</v>
-      </c>
       <c r="D33" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B33))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ba</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ce</v>
+      </c>
+      <c r="B34" t="s">
         <v>235</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>226</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ce</v>
-      </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B34))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ce</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-df</v>
+      </c>
+      <c r="B35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>226</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-df</v>
-      </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B35))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-df</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-es</v>
+      </c>
+      <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>226</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-es</v>
-      </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B36))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-es</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-go</v>
+      </c>
+      <c r="B37" t="s">
         <v>238</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>226</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-go</v>
-      </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B37))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-go</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ma</v>
+      </c>
+      <c r="B38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>226</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ma</v>
-      </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B38))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ma</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-mg</v>
+      </c>
+      <c r="B39" t="s">
         <v>240</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>226</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-mg</v>
-      </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B39))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-mg</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ms</v>
+      </c>
+      <c r="B40" t="s">
         <v>241</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>226</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ms</v>
-      </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B40))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ms</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-mt</v>
+      </c>
+      <c r="B41" t="s">
         <v>242</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>226</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-mt</v>
-      </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B41))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-mt</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-pa</v>
+      </c>
+      <c r="B42" t="s">
         <v>243</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>226</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-pa</v>
-      </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B42))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-pa</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-pb</v>
+      </c>
+      <c r="B43" t="s">
         <v>244</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>226</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-pb</v>
-      </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B43))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-pb</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-pe</v>
+      </c>
+      <c r="B44" t="s">
         <v>245</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>226</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-pe</v>
-      </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B44))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-pe</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-pi</v>
+      </c>
+      <c r="B45" t="s">
         <v>246</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>226</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-pi</v>
-      </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B45))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-pi</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-pr</v>
+      </c>
+      <c r="B46" t="s">
         <v>247</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>226</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-pr</v>
-      </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B46))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-pr</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-rj</v>
+      </c>
+      <c r="B47" t="s">
         <v>248</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>226</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-rj</v>
-      </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B47))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-rj</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-rn</v>
+      </c>
+      <c r="B48" t="s">
         <v>249</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>226</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-rn</v>
-      </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B48))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-rn</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-ro</v>
+      </c>
+      <c r="B49" t="s">
         <v>250</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>226</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-ro</v>
-      </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B49))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-ro</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-rr</v>
+      </c>
+      <c r="B50" t="s">
         <v>251</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>226</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-rr</v>
-      </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B50))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-rr</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-rs</v>
+      </c>
+      <c r="B51" t="s">
         <v>252</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>226</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-rs</v>
-      </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B51))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-rs</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-sc</v>
+      </c>
+      <c r="B52" t="s">
         <v>253</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>226</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-sc</v>
-      </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B52))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-sc</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-se</v>
+      </c>
+      <c r="B53" t="s">
         <v>254</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>226</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-se</v>
-      </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B53))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-se</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-sp</v>
+      </c>
+      <c r="B54" t="s">
         <v>255</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-sp</v>
-      </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B54))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-sp</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/cro-to</v>
+      </c>
+      <c r="B55" t="s">
         <v>256</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>226</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/cro-to</v>
-      </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B55))</f>
         <v>https://ips.saude.gov.br/NamingSystem/cro-to</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ac</v>
+      </c>
+      <c r="B56" t="s">
         <v>257</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>227</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-ac</v>
-      </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B56))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ac</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-al</v>
+      </c>
+      <c r="B57" t="s">
         <v>258</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>227</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-al</v>
-      </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B57))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-al</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-am</v>
+      </c>
+      <c r="B58" t="s">
         <v>259</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>227</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-am</v>
-      </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B58))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-am</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ap</v>
+      </c>
+      <c r="B59" t="s">
         <v>260</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>227</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-ap</v>
-      </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B59))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ap</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ba</v>
+      </c>
+      <c r="B60" t="s">
         <v>261</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>227</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-ba</v>
-      </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B60))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ba</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ce</v>
+      </c>
+      <c r="B61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>227</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-ce</v>
-      </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B61))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ce</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-df</v>
+      </c>
+      <c r="B62" t="s">
         <v>263</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>227</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-df</v>
-      </c>
       <c r="D62" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B62))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-df</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-es</v>
+      </c>
+      <c r="B63" t="s">
         <v>264</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>227</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-es</v>
-      </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B63))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-es</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-go</v>
+      </c>
+      <c r="B64" t="s">
         <v>265</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-go</v>
-      </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B64))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-go</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ma</v>
+      </c>
+      <c r="B65" t="s">
         <v>266</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>227</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-ma</v>
-      </c>
       <c r="D65" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B65))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ma</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-mg</v>
+      </c>
+      <c r="B66" t="s">
         <v>267</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>227</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ips.saude.gov.br/sid/coren-mg</v>
-      </c>
       <c r="D66" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B66))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-mg</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ms</v>
+      </c>
+      <c r="B67" t="s">
         <v>268</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>227</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C128" si="2">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A67))</f>
-        <v>https://ips.saude.gov.br/sid/coren-ms</v>
-      </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D128" si="3">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A67))</f>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B67))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ms</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-mt</v>
+      </c>
+      <c r="B68" t="s">
         <v>269</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>227</v>
       </c>
-      <c r="C68" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-mt</v>
-      </c>
       <c r="D68" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B68))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-mt</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-pa</v>
+      </c>
+      <c r="B69" t="s">
         <v>270</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>227</v>
       </c>
-      <c r="C69" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-pa</v>
-      </c>
       <c r="D69" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B69))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-pa</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-pb</v>
+      </c>
+      <c r="B70" t="s">
         <v>271</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>227</v>
       </c>
-      <c r="C70" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-pb</v>
-      </c>
       <c r="D70" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B70))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-pb</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-pe</v>
+      </c>
+      <c r="B71" t="s">
         <v>272</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>227</v>
       </c>
-      <c r="C71" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-pe</v>
-      </c>
       <c r="D71" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B71))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-pe</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-pi</v>
+      </c>
+      <c r="B72" t="s">
         <v>273</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>227</v>
       </c>
-      <c r="C72" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-pi</v>
-      </c>
       <c r="D72" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B72))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-pi</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-pr</v>
+      </c>
+      <c r="B73" t="s">
         <v>274</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>227</v>
       </c>
-      <c r="C73" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-pr</v>
-      </c>
       <c r="D73" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B73))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-pr</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-rj</v>
+      </c>
+      <c r="B74" t="s">
         <v>275</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>227</v>
       </c>
-      <c r="C74" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-rj</v>
-      </c>
       <c r="D74" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B74))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-rj</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-rn</v>
+      </c>
+      <c r="B75" t="s">
         <v>276</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>227</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-rn</v>
-      </c>
       <c r="D75" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B75))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-rn</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-ro</v>
+      </c>
+      <c r="B76" t="s">
         <v>277</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>227</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-ro</v>
-      </c>
       <c r="D76" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B76))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-ro</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-rr</v>
+      </c>
+      <c r="B77" t="s">
         <v>278</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>227</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-rr</v>
-      </c>
       <c r="D77" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B77))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-rr</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-rs</v>
+      </c>
+      <c r="B78" t="s">
         <v>279</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>227</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-rs</v>
-      </c>
       <c r="D78" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B78))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-rs</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-sc</v>
+      </c>
+      <c r="B79" t="s">
         <v>280</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>227</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-sc</v>
-      </c>
       <c r="D79" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B79))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-sc</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-se</v>
+      </c>
+      <c r="B80" t="s">
         <v>281</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>227</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-se</v>
-      </c>
       <c r="D80" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B80))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-se</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" t="s">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-sp</v>
+      </c>
+      <c r="B81" t="s">
         <v>282</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>227</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-sp</v>
-      </c>
       <c r="D81" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B81))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-sp</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" t="s">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/coren-to</v>
+      </c>
+      <c r="B82" t="s">
         <v>283</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>227</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/coren-to</v>
-      </c>
       <c r="D82" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B82))</f>
         <v>https://ips.saude.gov.br/NamingSystem/coren-to</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" t="s">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-ac</v>
+      </c>
+      <c r="B83" t="s">
         <v>284</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>228</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ac</v>
-      </c>
       <c r="D83" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B83))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ac</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-al</v>
+      </c>
+      <c r="B84" t="s">
         <v>285</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>228</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-al</v>
-      </c>
       <c r="D84" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B84))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-al</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-am</v>
+      </c>
+      <c r="B85" t="s">
         <v>286</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>228</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-am</v>
-      </c>
       <c r="D85" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B85))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-am</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-ap</v>
+      </c>
+      <c r="B86" t="s">
         <v>287</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>228</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ap</v>
-      </c>
       <c r="D86" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B86))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ap</v>
       </c>
       <c r="F86" t="s">
@@ -5739,1608 +5739,1608 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-ba</v>
+      </c>
+      <c r="B87" t="s">
         <v>288</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>228</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ba</v>
-      </c>
       <c r="D87" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B87))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ba</v>
       </c>
       <c r="F87" t="s">
         <v>285</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" ref="G87:G112" si="4">RIGHT(F87,2)</f>
+        <f t="shared" ref="G87:G112" si="2">RIGHT(F87,2)</f>
         <v>AL</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" t="s">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-ce</v>
+      </c>
+      <c r="B88" t="s">
         <v>289</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>228</v>
       </c>
-      <c r="C88" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ce</v>
-      </c>
       <c r="D88" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B88))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ce</v>
       </c>
       <c r="F88" t="s">
         <v>286</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>AM</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" t="s">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-df</v>
+      </c>
+      <c r="B89" t="s">
         <v>290</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>228</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-df</v>
-      </c>
       <c r="D89" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B89))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-df</v>
       </c>
       <c r="F89" t="s">
         <v>287</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>AP</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" t="s">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-es</v>
+      </c>
+      <c r="B90" t="s">
         <v>291</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>228</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-es</v>
-      </c>
       <c r="D90" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B90))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-es</v>
       </c>
       <c r="F90" t="s">
         <v>288</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>BA</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>https://ips.saude.gov.br/sid/crm-go</v>
+      </c>
+      <c r="B91" t="s">
         <v>292</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>228</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-go</v>
-      </c>
       <c r="D91" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B91))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-go</v>
       </c>
       <c r="F91" t="s">
         <v>289</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>CE</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="A92" t="str">
+        <f t="shared" ref="A92:A155" si="3">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B92))</f>
+        <v>https://ips.saude.gov.br/sid/crm-ma</v>
+      </c>
+      <c r="B92" t="s">
         <v>293</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>228</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ma</v>
-      </c>
       <c r="D92" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B92))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ma</v>
       </c>
       <c r="F92" t="s">
         <v>290</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>DF</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-mg</v>
+      </c>
+      <c r="B93" t="s">
         <v>294</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>228</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-mg</v>
-      </c>
       <c r="D93" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B93))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-mg</v>
       </c>
       <c r="F93" t="s">
         <v>291</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>ES</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-ms</v>
+      </c>
+      <c r="B94" t="s">
         <v>295</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>228</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ms</v>
-      </c>
       <c r="D94" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B94))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ms</v>
       </c>
       <c r="F94" t="s">
         <v>292</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>GO</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" t="s">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-mt</v>
+      </c>
+      <c r="B95" t="s">
         <v>296</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="C95" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-mt</v>
-      </c>
       <c r="D95" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B95))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-mt</v>
       </c>
       <c r="F95" t="s">
         <v>293</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>MA</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-pa</v>
+      </c>
+      <c r="B96" t="s">
         <v>297</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>228</v>
       </c>
-      <c r="C96" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-pa</v>
-      </c>
       <c r="D96" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B96))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pa</v>
       </c>
       <c r="F96" t="s">
         <v>294</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>MG</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-pb</v>
+      </c>
+      <c r="B97" t="s">
         <v>298</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>228</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-pb</v>
-      </c>
       <c r="D97" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B97))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pb</v>
       </c>
       <c r="F97" t="s">
         <v>295</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>MS</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" t="s">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-pe</v>
+      </c>
+      <c r="B98" t="s">
         <v>299</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>228</v>
       </c>
-      <c r="C98" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-pe</v>
-      </c>
       <c r="D98" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B98))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pe</v>
       </c>
       <c r="F98" t="s">
         <v>296</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>MT</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" t="s">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-pi</v>
+      </c>
+      <c r="B99" t="s">
         <v>300</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>228</v>
       </c>
-      <c r="C99" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-pi</v>
-      </c>
       <c r="D99" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B99))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pi</v>
       </c>
       <c r="F99" t="s">
         <v>297</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>PA</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" t="s">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-pr</v>
+      </c>
+      <c r="B100" t="s">
         <v>301</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>228</v>
       </c>
-      <c r="C100" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-pr</v>
-      </c>
       <c r="D100" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B100))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-pr</v>
       </c>
       <c r="F100" t="s">
         <v>298</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>PB</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" t="s">
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-rj</v>
+      </c>
+      <c r="B101" t="s">
         <v>302</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>228</v>
       </c>
-      <c r="C101" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-rj</v>
-      </c>
       <c r="D101" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B101))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rj</v>
       </c>
       <c r="F101" t="s">
         <v>299</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>PE</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" t="s">
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-rn</v>
+      </c>
+      <c r="B102" t="s">
         <v>303</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>228</v>
       </c>
-      <c r="C102" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-rn</v>
-      </c>
       <c r="D102" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B102))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rn</v>
       </c>
       <c r="F102" t="s">
         <v>300</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>PI</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" t="s">
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-ro</v>
+      </c>
+      <c r="B103" t="s">
         <v>304</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>228</v>
       </c>
-      <c r="C103" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-ro</v>
-      </c>
       <c r="D103" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B103))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-ro</v>
       </c>
       <c r="F103" t="s">
         <v>301</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>PR</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" t="s">
+      <c r="A104" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-rr</v>
+      </c>
+      <c r="B104" t="s">
         <v>305</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>228</v>
       </c>
-      <c r="C104" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-rr</v>
-      </c>
       <c r="D104" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B104))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rr</v>
       </c>
       <c r="F104" t="s">
         <v>302</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>RJ</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" t="s">
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-rs</v>
+      </c>
+      <c r="B105" t="s">
         <v>306</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>228</v>
       </c>
-      <c r="C105" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-rs</v>
-      </c>
       <c r="D105" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B105))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-rs</v>
       </c>
       <c r="F105" t="s">
         <v>303</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>RN</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" t="s">
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-sc</v>
+      </c>
+      <c r="B106" t="s">
         <v>307</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>228</v>
       </c>
-      <c r="C106" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-sc</v>
-      </c>
       <c r="D106" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B106))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-sc</v>
       </c>
       <c r="F106" t="s">
         <v>304</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>RO</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" t="s">
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-se</v>
+      </c>
+      <c r="B107" t="s">
         <v>308</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>228</v>
       </c>
-      <c r="C107" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-se</v>
-      </c>
       <c r="D107" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B107))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-se</v>
       </c>
       <c r="F107" t="s">
         <v>305</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>RR</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" t="s">
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-sp</v>
+      </c>
+      <c r="B108" t="s">
         <v>309</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>228</v>
       </c>
-      <c r="C108" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-sp</v>
-      </c>
       <c r="D108" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B108))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-sp</v>
       </c>
       <c r="F108" t="s">
         <v>306</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>RS</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" t="s">
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crm-to</v>
+      </c>
+      <c r="B109" t="s">
         <v>310</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>228</v>
       </c>
-      <c r="C109" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crm-to</v>
-      </c>
       <c r="D109" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B109))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crm-to</v>
       </c>
       <c r="F109" t="s">
         <v>307</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>SC</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-ac-ro</v>
+      </c>
+      <c r="B110" t="str">
         <f>_xlfn.CONCAT("CRP-",G86,"-RO")</f>
         <v>CRP-AC-RO</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>313</v>
       </c>
-      <c r="C110" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-ac-ro</v>
-      </c>
       <c r="D110" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B110))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-ac-ro</v>
       </c>
       <c r="F110" t="s">
         <v>308</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>SE</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-al</v>
+      </c>
+      <c r="B111" t="str">
         <f>_xlfn.CONCAT("CRP-",G87)</f>
         <v>CRP-AL</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>313</v>
       </c>
-      <c r="C111" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-al</v>
-      </c>
       <c r="D111" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B111))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-al</v>
       </c>
       <c r="F111" t="s">
         <v>309</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>SP</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-am-rr</v>
+      </c>
+      <c r="B112" t="str">
         <f>_xlfn.CONCAT("CRP-",G88,"-RR")</f>
         <v>CRP-AM-RR</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>313</v>
       </c>
-      <c r="C112" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-am-rr</v>
-      </c>
       <c r="D112" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B112))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-am-rr</v>
       </c>
       <c r="F112" t="s">
         <v>310</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>TO</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-ba</v>
+      </c>
+      <c r="B113" t="str">
         <f>_xlfn.CONCAT("CRP-",G90)</f>
         <v>CRP-BA</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>313</v>
       </c>
-      <c r="C113" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-ba</v>
-      </c>
       <c r="D113" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B113))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-ba</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-ce</v>
+      </c>
+      <c r="B114" t="str">
         <f>_xlfn.CONCAT("CRP-",G91)</f>
         <v>CRP-CE</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>313</v>
       </c>
-      <c r="C114" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-ce</v>
-      </c>
       <c r="D114" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B114))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-ce</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-df</v>
+      </c>
+      <c r="B115" t="str">
         <f>_xlfn.CONCAT("CRP-",G92)</f>
         <v>CRP-DF</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>313</v>
       </c>
-      <c r="C115" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-df</v>
-      </c>
       <c r="D115" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B115))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-df</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-es</v>
+      </c>
+      <c r="B116" t="str">
         <f>_xlfn.CONCAT("CRP-",G93)</f>
         <v>CRP-ES</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>313</v>
       </c>
-      <c r="C116" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-es</v>
-      </c>
       <c r="D116" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B116))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-es</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-go</v>
+      </c>
+      <c r="B117" t="str">
         <f>_xlfn.CONCAT("CRP-",G94)</f>
         <v>CRP-GO</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>313</v>
       </c>
-      <c r="C117" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-go</v>
-      </c>
       <c r="D117" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B117))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-go</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-ma</v>
+      </c>
+      <c r="B118" t="str">
         <f>_xlfn.CONCAT("CRP-",G95)</f>
         <v>CRP-MA</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>313</v>
       </c>
-      <c r="C118" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-ma</v>
-      </c>
       <c r="D118" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B118))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-ma</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-mg</v>
+      </c>
+      <c r="B119" t="str">
         <f>_xlfn.CONCAT("CRP-",G96)</f>
         <v>CRP-MG</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>313</v>
       </c>
-      <c r="C119" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-mg</v>
-      </c>
       <c r="D119" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B119))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-mg</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-ms</v>
+      </c>
+      <c r="B120" t="str">
         <f>_xlfn.CONCAT("CRP-",G97)</f>
         <v>CRP-MS</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>313</v>
       </c>
-      <c r="C120" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-ms</v>
-      </c>
       <c r="D120" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B120))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-ms</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-mt</v>
+      </c>
+      <c r="B121" t="str">
         <f>_xlfn.CONCAT("CRP-",G98)</f>
         <v>CRP-MT</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>313</v>
       </c>
-      <c r="C121" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-mt</v>
-      </c>
       <c r="D121" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B121))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-mt</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-pa-ap</v>
+      </c>
+      <c r="B122" t="str">
         <f>_xlfn.CONCAT("CRP-",G99,"-AP")</f>
         <v>CRP-PA-AP</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>313</v>
       </c>
-      <c r="C122" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-pa-ap</v>
-      </c>
       <c r="D122" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B122))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-pa-ap</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-pb</v>
+      </c>
+      <c r="B123" t="str">
         <f>_xlfn.CONCAT("CRP-",G100)</f>
         <v>CRP-PB</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>313</v>
       </c>
-      <c r="C123" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-pb</v>
-      </c>
       <c r="D123" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B123))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-pb</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-pe</v>
+      </c>
+      <c r="B124" t="str">
         <f>_xlfn.CONCAT("CRP-",G101)</f>
         <v>CRP-PE</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>313</v>
       </c>
-      <c r="C124" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-pe</v>
-      </c>
       <c r="D124" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B124))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-pe</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-pi</v>
+      </c>
+      <c r="B125" t="str">
         <f>_xlfn.CONCAT("CRP-",G102)</f>
         <v>CRP-PI</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>313</v>
       </c>
-      <c r="C125" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-pi</v>
-      </c>
       <c r="D125" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B125))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-pi</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-pr</v>
+      </c>
+      <c r="B126" t="str">
         <f>_xlfn.CONCAT("CRP-",G103)</f>
         <v>CRP-PR</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>313</v>
       </c>
-      <c r="C126" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-pr</v>
-      </c>
       <c r="D126" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B126))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-pr</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-rj</v>
+      </c>
+      <c r="B127" t="str">
         <f>_xlfn.CONCAT("CRP-",G104)</f>
         <v>CRP-RJ</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>313</v>
       </c>
-      <c r="C127" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-rj</v>
-      </c>
       <c r="D127" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B127))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-rj</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-rn</v>
+      </c>
+      <c r="B128" t="str">
         <f>_xlfn.CONCAT("CRP-",G105)</f>
         <v>CRP-RN</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>313</v>
       </c>
-      <c r="C128" t="str">
-        <f t="shared" si="2"/>
-        <v>https://ips.saude.gov.br/sid/crp-rn</v>
-      </c>
       <c r="D128" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B128))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-rn</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-rs</v>
+      </c>
+      <c r="B129" t="str">
         <f>_xlfn.CONCAT("CRP-",G108)</f>
         <v>CRP-RS</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>313</v>
       </c>
-      <c r="C129" t="str">
-        <f t="shared" ref="C129:C171" si="5">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(A129))</f>
-        <v>https://ips.saude.gov.br/sid/crp-rs</v>
-      </c>
       <c r="D129" t="str">
-        <f t="shared" ref="D129:D171" si="6">CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(A129))</f>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B129))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-rs</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-sc</v>
+      </c>
+      <c r="B130" t="str">
         <f>_xlfn.CONCAT("CRP-",G109)</f>
         <v>CRP-SC</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>313</v>
       </c>
-      <c r="C130" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crp-sc</v>
-      </c>
       <c r="D130" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B130))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-sc</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-se</v>
+      </c>
+      <c r="B131" t="str">
         <f>_xlfn.CONCAT("CRP-",G110)</f>
         <v>CRP-SE</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>313</v>
       </c>
-      <c r="C131" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crp-se</v>
-      </c>
       <c r="D131" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B131))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-se</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-sp</v>
+      </c>
+      <c r="B132" t="str">
         <f>_xlfn.CONCAT("CRP-",G111)</f>
         <v>CRP-SP</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>313</v>
       </c>
-      <c r="C132" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crp-sp</v>
-      </c>
       <c r="D132" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B132))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-sp</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crp-to</v>
+      </c>
+      <c r="B133" t="str">
         <f>_xlfn.CONCAT("CRP-",G112)</f>
         <v>CRP-TO</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>313</v>
       </c>
-      <c r="C133" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crp-to</v>
-      </c>
       <c r="D133" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B133))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crp-to</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="19">
       <c r="A134" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ba</v>
+      </c>
+      <c r="B134" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G90)</f>
         <v>CREFITO-BA</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>314</v>
       </c>
-      <c r="C134" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-ba</v>
-      </c>
       <c r="D134" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B134))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-ba</v>
       </c>
       <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ce</v>
+      </c>
+      <c r="B135" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G91)</f>
         <v>CREFITO-CE</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>314</v>
       </c>
-      <c r="C135" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-ce</v>
-      </c>
       <c r="D135" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B135))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-ce</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-es</v>
+      </c>
+      <c r="B136" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G93)</f>
         <v>CREFITO-ES</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>314</v>
       </c>
-      <c r="C136" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-es</v>
-      </c>
       <c r="D136" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B136))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-es</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="19">
       <c r="A137" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-go-df</v>
+      </c>
+      <c r="B137" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G94,"-DF")</f>
         <v>CREFITO-GO-DF</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>314</v>
       </c>
-      <c r="C137" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-go-df</v>
-      </c>
       <c r="D137" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B137))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-go-df</v>
       </c>
       <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ma</v>
+      </c>
+      <c r="B138" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G95)</f>
         <v>CREFITO-MA</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>314</v>
       </c>
-      <c r="C138" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-ma</v>
-      </c>
       <c r="D138" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B138))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-ma</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-mg</v>
+      </c>
+      <c r="B139" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G96)</f>
         <v>CREFITO-MG</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>314</v>
       </c>
-      <c r="C139" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-mg</v>
-      </c>
       <c r="D139" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B139))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-mg</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ms</v>
+      </c>
+      <c r="B140" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G97)</f>
         <v>CREFITO-MS</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>314</v>
       </c>
-      <c r="C140" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-ms</v>
-      </c>
       <c r="D140" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B140))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-ms</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-mt</v>
+      </c>
+      <c r="B141" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G98)</f>
         <v>CREFITO-MT</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>314</v>
       </c>
-      <c r="C141" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-mt</v>
-      </c>
       <c r="D141" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B141))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-mt</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pa-am-to-rr-ap</v>
+      </c>
+      <c r="B142" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G99,"-AM-TO-RR-AP")</f>
         <v>CREFITO-PA-AM-TO-RR-AP</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>314</v>
       </c>
-      <c r="C142" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-pa-am-to-rr-ap</v>
-      </c>
       <c r="D142" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B142))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-pa-am-to-rr-ap</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pe-pb-al-rn</v>
+      </c>
+      <c r="B143" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G101,"-PB-AL-RN")</f>
         <v>CREFITO-PE-PB-AL-RN</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>314</v>
       </c>
-      <c r="C143" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-pe-pb-al-rn</v>
-      </c>
       <c r="D143" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B143))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-pe-pb-al-rn</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pi</v>
+      </c>
+      <c r="B144" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G102)</f>
         <v>CREFITO-PI</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>314</v>
       </c>
-      <c r="C144" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-pi</v>
-      </c>
       <c r="D144" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B144))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-pi</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-pr</v>
+      </c>
+      <c r="B145" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G103)</f>
         <v>CREFITO-PR</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>314</v>
       </c>
-      <c r="C145" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-pr</v>
-      </c>
       <c r="D145" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B145))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-pr</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-rj</v>
+      </c>
+      <c r="B146" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G104)</f>
         <v>CREFITO-RJ</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>314</v>
       </c>
-      <c r="C146" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-rj</v>
-      </c>
       <c r="D146" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B146))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-rj</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-ro-ac</v>
+      </c>
+      <c r="B147" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G106,"-AC")</f>
         <v>CREFITO-RO-AC</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>314</v>
       </c>
-      <c r="C147" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-ro-ac</v>
-      </c>
       <c r="D147" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B147))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-ro-ac</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-rs</v>
+      </c>
+      <c r="B148" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G108)</f>
         <v>CREFITO-RS</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>314</v>
       </c>
-      <c r="C148" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-rs</v>
-      </c>
       <c r="D148" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B148))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-rs</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-sc</v>
+      </c>
+      <c r="B149" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G109)</f>
         <v>CREFITO-SC</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>314</v>
       </c>
-      <c r="C149" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-sc</v>
-      </c>
       <c r="D149" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B149))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-sc</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-se</v>
+      </c>
+      <c r="B150" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G110)</f>
         <v>CREFITO-SE</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>314</v>
       </c>
-      <c r="C150" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-se</v>
-      </c>
       <c r="D150" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B150))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-se</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crefito-sp</v>
+      </c>
+      <c r="B151" t="str">
         <f>_xlfn.CONCAT("CREFITO-",G111)</f>
         <v>CREFITO-SP</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>314</v>
       </c>
-      <c r="C151" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefito-sp</v>
-      </c>
       <c r="D151" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B151))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefito-sp</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crn-al</v>
+      </c>
+      <c r="B152" t="str">
         <f>_xlfn.CONCAT("CRN-",G87)</f>
         <v>CRN-AL</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>315</v>
       </c>
-      <c r="C152" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-al</v>
-      </c>
       <c r="D152" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B152))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-al</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crn-ba-se</v>
+      </c>
+      <c r="B153" t="str">
         <f>_xlfn.CONCAT("CRN-",G90,"-SE")</f>
         <v>CRN-BA-SE</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>315</v>
       </c>
-      <c r="C153" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-ba-se</v>
-      </c>
       <c r="D153" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B153))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-ba-se</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crn-ce-ma_pi</v>
+      </c>
+      <c r="B154" t="str">
         <f>_xlfn.CONCAT("CRN-",G91,"-MA_PI")</f>
         <v>CRN-CE-MA_PI</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>315</v>
       </c>
-      <c r="C154" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-ce-ma_pi</v>
-      </c>
       <c r="D154" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B154))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-ce-ma_pi</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="str">
+        <f t="shared" si="3"/>
+        <v>https://ips.saude.gov.br/sid/crn-df-go-mt-to</v>
+      </c>
+      <c r="B155" t="str">
         <f>_xlfn.CONCAT("CRN-",G92,"-GO-MT-TO")</f>
         <v>CRN-DF-GO-MT-TO</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>315</v>
       </c>
-      <c r="C155" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-df-go-mt-to</v>
-      </c>
       <c r="D155" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B155))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-df-go-mt-to</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="str">
+        <f t="shared" ref="A156:A171" si="4">CONCATENATE("https://ips.saude.gov.br/sid/",LOWER(B156))</f>
+        <v>https://ips.saude.gov.br/sid/crn-pa-ac-am-ap-ro-rr</v>
+      </c>
+      <c r="B156" t="str">
         <f>_xlfn.CONCAT("CRN-",G99,"-AC-AM-AP-RO-RR")</f>
         <v>CRN-PA-AC-AM-AP-RO-RR</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>315</v>
       </c>
-      <c r="C156" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-pa-ac-am-ap-ro-rr</v>
-      </c>
       <c r="D156" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B156))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-pa-ac-am-ap-ro-rr</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-pe-al-pb-rn</v>
+      </c>
+      <c r="B157" t="str">
         <f>_xlfn.CONCAT("CRN-",G101,"-AL-PB-RN")</f>
         <v>CRN-PE-AL-PB-RN</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>315</v>
       </c>
-      <c r="C157" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-pe-al-pb-rn</v>
-      </c>
       <c r="D157" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B157))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-pe-al-pb-rn</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-pr</v>
+      </c>
+      <c r="B158" t="str">
         <f>_xlfn.CONCAT("CRN-",G103)</f>
         <v>CRN-PR</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>315</v>
       </c>
-      <c r="C158" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-pr</v>
-      </c>
       <c r="D158" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B158))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-pr</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-rj-es</v>
+      </c>
+      <c r="B159" t="str">
         <f>_xlfn.CONCAT("CRN-",G104,"-ES")</f>
         <v>CRN-RJ-ES</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>315</v>
       </c>
-      <c r="C159" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-rj-es</v>
-      </c>
       <c r="D159" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B159))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-rj-es</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-rs</v>
+      </c>
+      <c r="B160" t="str">
         <f>_xlfn.CONCAT("CRN-",G108)</f>
         <v>CRN-RS</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>315</v>
       </c>
-      <c r="C160" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-rs</v>
-      </c>
       <c r="D160" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B160))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-rs</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-sc</v>
+      </c>
+      <c r="B161" t="str">
         <f>_xlfn.CONCAT("CRN-",G109)</f>
         <v>CRN-SC</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>315</v>
       </c>
-      <c r="C161" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-sc</v>
-      </c>
       <c r="D161" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B161))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-sc</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crn-sp-ms</v>
+      </c>
+      <c r="B162" t="str">
         <f>_xlfn.CONCAT("CRN-",G111,"-MS")</f>
         <v>CRN-SP-MS</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>315</v>
       </c>
-      <c r="C162" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crn-sp-ms</v>
-      </c>
       <c r="D162" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B162))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crn-sp-ms</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-am-ac-ap-pa-ro-rr</v>
+      </c>
+      <c r="B163" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G88,"-AC-AP-PA-RO-RR")</f>
         <v>CREFONO-AM-AC-AP-PA-RO-RR</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>316</v>
       </c>
-      <c r="C163" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-am-ac-ap-pa-ro-rr</v>
-      </c>
       <c r="D163" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B163))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-am-ac-ap-pa-ro-rr</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-ce-ma-pi-rn</v>
+      </c>
+      <c r="B164" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G91,"-MA-PI-RN")</f>
         <v>CREFONO-CE-MA-PI-RN</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>316</v>
       </c>
-      <c r="C164" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-ce-ma-pi-rn</v>
-      </c>
       <c r="D164" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B164))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-ce-ma-pi-rn</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-go-df-ms-mt-to</v>
+      </c>
+      <c r="B165" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G94,"-DF-MS-MT-TO")</f>
         <v>CREFONO-GO-DF-MS-MT-TO</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>316</v>
       </c>
-      <c r="C165" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-go-df-ms-mt-to</v>
-      </c>
       <c r="D165" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B165))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-go-df-ms-mt-to</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-mg-es</v>
+      </c>
+      <c r="B166" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G96,"-ES")</f>
         <v>CREFONO-MG-ES</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>316</v>
       </c>
-      <c r="C166" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-mg-es</v>
-      </c>
       <c r="D166" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B166))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-mg-es</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-pe-al-ba-pb-se</v>
+      </c>
+      <c r="B167" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G101,"-AL-BA-PB-SE")</f>
         <v>CREFONO-PE-AL-BA-PB-SE</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>316</v>
       </c>
-      <c r="C167" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-pe-al-ba-pb-se</v>
-      </c>
       <c r="D167" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B167))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-pe-al-ba-pb-se</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-pr-sc</v>
+      </c>
+      <c r="B168" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G103,"-SC")</f>
         <v>CREFONO-PR-SC</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>316</v>
       </c>
-      <c r="C168" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-pr-sc</v>
-      </c>
       <c r="D168" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B168))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-pr-sc</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-rj</v>
+      </c>
+      <c r="B169" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G104)</f>
         <v>CREFONO-RJ</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>316</v>
       </c>
-      <c r="C169" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-rj</v>
-      </c>
       <c r="D169" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B169))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-rj</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-rs</v>
+      </c>
+      <c r="B170" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G108)</f>
         <v>CREFONO-RS</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>316</v>
       </c>
-      <c r="C170" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-rs</v>
-      </c>
       <c r="D170" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B170))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-rs</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="str">
+        <f t="shared" si="4"/>
+        <v>https://ips.saude.gov.br/sid/crefono-sp</v>
+      </c>
+      <c r="B171" t="str">
         <f>_xlfn.CONCAT("CREFONO-",G111)</f>
         <v>CREFONO-SP</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>316</v>
       </c>
-      <c r="C171" t="str">
-        <f t="shared" si="5"/>
-        <v>https://ips.saude.gov.br/sid/crefono-sp</v>
-      </c>
       <c r="D171" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("https://ips.saude.gov.br/NamingSystem/",LOWER(B171))</f>
         <v>https://ips.saude.gov.br/NamingSystem/crefono-sp</v>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A137 A155 A153 A159 A157 A167 A168" formula="1"/>
+    <ignoredError sqref="B137 B155 B153 B159 B157 B167 B168" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7357,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7807BF-0199-BE43-92F3-4D6E74E5BE18}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
